--- a/msff/xls/ex_China.xlsx
+++ b/msff/xls/ex_China.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9698AD8-B1B2-4A8A-B6C5-D486AF01DCE5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2EC5EC-1398-4D65-9850-0C32ED4370FA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="155">
   <si>
     <t>TJJ USD
 bal</t>
@@ -371,9 +371,6 @@
     <t>RMB&gt;&gt;SGD</t>
   </si>
   <si>
-    <t>risk @ 丢</t>
-  </si>
-  <si>
     <t>H|A: low</t>
   </si>
   <si>
@@ -398,9 +395,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Rmb 20k/trip</t>
-  </si>
-  <si>
     <t>R300k/Y/3names</t>
   </si>
   <si>
@@ -479,9 +473,6 @@
     <t>from</t>
   </si>
   <si>
-    <t>CMB ATM</t>
-  </si>
-  <si>
     <t>icbc::TB</t>
   </si>
   <si>
@@ -515,13 +506,25 @@
     <t>This sheet shows all and only RMB amounts expatriated via ChannelA + Channel520, not channelX or channel500</t>
   </si>
   <si>
-    <t>Channel500 = Each passport holder is entitled to buy USD 500 (or equivalent) per day, and carry through exit flights</t>
-  </si>
-  <si>
     <t xml:space="preserve">                         withdrawal                 total -&gt;</t>
   </si>
   <si>
     <t>SGD 提现</t>
+  </si>
+  <si>
+    <t>Channel500 = Each foreigner is entitled to buy USD 500 (or equivalent) per day, and bring on departure flights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash@CMB </t>
+  </si>
+  <si>
+    <t>risk @ 丢||损坏</t>
+  </si>
+  <si>
+    <t>520 | Channel500</t>
+  </si>
+  <si>
+    <t>Rmb 30k/trip</t>
   </si>
 </sst>
 </file>
@@ -538,12 +541,19 @@
     <numFmt numFmtId="168" formatCode="[$¥-478]#,##0"/>
     <numFmt numFmtId="169" formatCode="[$¥-804]#,##0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -606,6 +616,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -806,9 +831,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -824,23 +849,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -860,7 +885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -868,13 +893,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -995,7 +1020,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1071,16 +1096,64 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1088,19 +1161,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1109,15 +1179,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1142,42 +1203,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1202,6 +1227,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1214,22 +1257,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1545,63 +1581,63 @@
     </row>
     <row r="2" spans="2:20">
       <c r="D2" s="60"/>
-      <c r="G2" s="144" t="s">
+      <c r="G2" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="144" t="s">
+      <c r="H2" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="161" t="s">
+      <c r="J2" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="161"/>
-      <c r="Q2" s="161"/>
-      <c r="R2" s="161"/>
-      <c r="S2" s="161"/>
-      <c r="T2" s="134" t="s">
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="150" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="15" customHeight="1">
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="162" t="s">
+      <c r="C3" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="163"/>
-      <c r="E3" s="164" t="s">
+      <c r="D3" s="144"/>
+      <c r="E3" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="165"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
       <c r="I3" s="98"/>
-      <c r="J3" s="137" t="s">
+      <c r="J3" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="166"/>
+      <c r="K3" s="148"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="137" t="s">
+      <c r="M3" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="137"/>
-      <c r="O3" s="166"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="148"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="137" t="s">
+      <c r="Q3" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="166"/>
-      <c r="S3" s="166"/>
-      <c r="T3" s="134"/>
+      <c r="R3" s="148"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="150"/>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="137"/>
+      <c r="B4" s="147"/>
       <c r="C4" s="28" t="s">
         <v>10</v>
       </c>
@@ -1614,8 +1650,8 @@
       <c r="F4" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
       <c r="J4" s="50" t="s">
         <v>14</v>
       </c>
@@ -1813,10 +1849,10 @@
       <c r="D9" s="35">
         <v>71433</v>
       </c>
-      <c r="E9" s="145" t="s">
+      <c r="E9" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="146"/>
+      <c r="F9" s="141"/>
       <c r="G9" s="65">
         <v>10000</v>
       </c>
@@ -1858,7 +1894,7 @@
       <c r="T10" s="17"/>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="138">
+      <c r="B11" s="153">
         <v>45594</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -1900,7 +1936,7 @@
       <c r="T11" s="17"/>
     </row>
     <row r="12" spans="2:20" ht="15" customHeight="1">
-      <c r="B12" s="139"/>
+      <c r="B12" s="154"/>
       <c r="C12" s="79"/>
       <c r="D12" s="35"/>
       <c r="E12" s="75"/>
@@ -1937,10 +1973,10 @@
       <c r="D13" s="35">
         <v>71397</v>
       </c>
-      <c r="E13" s="145" t="s">
+      <c r="E13" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="146"/>
+      <c r="F13" s="141"/>
       <c r="G13" s="69">
         <f>G12+10000</f>
         <v>12000</v>
@@ -1974,19 +2010,19 @@
       <c r="E14" s="67">
         <v>3400</v>
       </c>
-      <c r="F14" s="155" t="s">
+      <c r="F14" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="156"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="156"/>
-      <c r="M14" s="156"/>
-      <c r="N14" s="156"/>
-      <c r="O14" s="156"/>
-      <c r="P14" s="157"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="135"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="135"/>
+      <c r="P14" s="136"/>
       <c r="Q14" s="110">
         <f>E14</f>
         <v>3400</v>
@@ -2024,7 +2060,7 @@
       <c r="T15" s="17"/>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="140">
+      <c r="B16" s="155">
         <v>45632</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -2061,7 +2097,7 @@
       <c r="T16" s="17"/>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="141"/>
+      <c r="B17" s="156"/>
       <c r="C17" s="17"/>
       <c r="D17" s="74"/>
       <c r="E17" s="82"/>
@@ -2145,11 +2181,11 @@
       <c r="E19" s="67">
         <v>10000</v>
       </c>
-      <c r="F19" s="158" t="s">
+      <c r="F19" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="159"/>
-      <c r="H19" s="160"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="139"/>
       <c r="I19" s="104"/>
       <c r="J19" s="67">
         <v>10000</v>
@@ -2182,10 +2218,10 @@
       <c r="D20" s="74">
         <v>73469</v>
       </c>
-      <c r="E20" s="145" t="s">
+      <c r="E20" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="146"/>
+      <c r="F20" s="141"/>
       <c r="G20" s="90">
         <v>12000</v>
       </c>
@@ -2236,10 +2272,10 @@
       <c r="D22" s="35">
         <v>214481</v>
       </c>
-      <c r="E22" s="145" t="s">
+      <c r="E22" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="146"/>
+      <c r="F22" s="141"/>
       <c r="G22" s="93">
         <v>42000</v>
       </c>
@@ -2275,12 +2311,12 @@
       <c r="G23" s="93">
         <v>0</v>
       </c>
-      <c r="H23" s="147" t="s">
+      <c r="H23" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="148"/>
-      <c r="J23" s="148"/>
-      <c r="K23" s="149"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="160"/>
+      <c r="K23" s="161"/>
       <c r="L23" s="102"/>
       <c r="M23" s="93">
         <v>42000</v>
@@ -2331,7 +2367,7 @@
         <f>40000-2550</f>
         <v>37450</v>
       </c>
-      <c r="E25" s="142" t="s">
+      <c r="E25" s="157" t="s">
         <v>38</v>
       </c>
       <c r="F25" s="93">
@@ -2340,22 +2376,22 @@
       <c r="G25" s="93"/>
       <c r="H25" s="94"/>
       <c r="I25" s="94"/>
-      <c r="J25" s="153">
+      <c r="J25" s="165">
         <v>10000</v>
       </c>
       <c r="K25" s="107">
         <v>45723</v>
       </c>
       <c r="L25" s="102"/>
-      <c r="M25" s="150" t="s">
+      <c r="M25" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="N25" s="151"/>
-      <c r="O25" s="151"/>
-      <c r="P25" s="151"/>
-      <c r="Q25" s="151"/>
-      <c r="R25" s="151"/>
-      <c r="S25" s="152"/>
+      <c r="N25" s="163"/>
+      <c r="O25" s="163"/>
+      <c r="P25" s="163"/>
+      <c r="Q25" s="163"/>
+      <c r="R25" s="163"/>
+      <c r="S25" s="164"/>
       <c r="T25" s="17"/>
     </row>
     <row r="26" spans="2:21">
@@ -2367,27 +2403,27 @@
         <f>5000*7.49</f>
         <v>37450</v>
       </c>
-      <c r="E26" s="143"/>
+      <c r="E26" s="158"/>
       <c r="F26" s="93">
         <v>5000</v>
       </c>
       <c r="G26" s="93"/>
       <c r="H26" s="95"/>
       <c r="I26" s="104"/>
-      <c r="J26" s="154"/>
+      <c r="J26" s="166"/>
       <c r="K26" s="107" t="s">
         <v>40</v>
       </c>
       <c r="L26" s="102"/>
-      <c r="M26" s="150" t="s">
+      <c r="M26" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="N26" s="151"/>
-      <c r="O26" s="151"/>
-      <c r="P26" s="151"/>
-      <c r="Q26" s="151"/>
-      <c r="R26" s="151"/>
-      <c r="S26" s="152"/>
+      <c r="N26" s="163"/>
+      <c r="O26" s="163"/>
+      <c r="P26" s="163"/>
+      <c r="Q26" s="163"/>
+      <c r="R26" s="163"/>
+      <c r="S26" s="164"/>
       <c r="T26" s="17"/>
     </row>
     <row r="27" spans="2:21">
@@ -2445,38 +2481,38 @@
       <c r="I29" s="108"/>
     </row>
     <row r="30" spans="2:21" ht="17.25">
-      <c r="B30" s="135" t="s">
+      <c r="B30" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="135"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="135"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="135"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="151"/>
       <c r="H30" s="97"/>
       <c r="I30" s="108"/>
     </row>
     <row r="31" spans="2:21">
-      <c r="B31" s="135" t="s">
+      <c r="B31" s="151" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="135"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="135"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="151"/>
       <c r="H31" s="97"/>
       <c r="I31" s="108"/>
     </row>
     <row r="32" spans="2:21">
-      <c r="B32" s="135" t="s">
+      <c r="B32" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="135"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
       <c r="H32" s="97"/>
       <c r="I32" s="108"/>
     </row>
@@ -3497,16 +3533,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F14:P14"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J2:S2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="H2:H4"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B32:G32"/>
@@ -3523,6 +3549,16 @@
     <mergeCell ref="J25:J26"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="F14:P14"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J2:S2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -3533,8 +3569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3557,28 +3593,28 @@
   <sheetData>
     <row r="1" spans="2:12">
       <c r="B1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1">
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
       <c r="E3" s="167"/>
       <c r="F3" s="45"/>
       <c r="G3" s="168" t="s">
         <v>46</v>
       </c>
       <c r="H3" s="169"/>
-      <c r="I3" s="165"/>
+      <c r="I3" s="146"/>
       <c r="J3" s="167"/>
       <c r="K3" s="53"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="145" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="167"/>
@@ -4139,7 +4175,7 @@
         <v>379598.12999999995</v>
       </c>
       <c r="O22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="2:15">
@@ -4176,7 +4212,7 @@
         <v>76000</v>
       </c>
       <c r="O23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="2:15">
@@ -4213,7 +4249,7 @@
         <v>10694.66</v>
       </c>
       <c r="O24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="2:15">
@@ -4281,7 +4317,7 @@
       </c>
       <c r="N26" s="125"/>
       <c r="O26" s="125" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="2:15">
@@ -4347,7 +4383,7 @@
         <v>133000</v>
       </c>
       <c r="O28" s="126" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="2:15">
@@ -4380,7 +4416,7 @@
       </c>
       <c r="L29" s="124"/>
       <c r="N29" s="126" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O29">
         <v>7.1</v>
@@ -4519,7 +4555,7 @@
     <row r="34" spans="2:12">
       <c r="B34" s="22"/>
       <c r="C34" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D34" s="33">
         <v>45737</v>
@@ -4539,7 +4575,7 @@
         <v>55</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>56</v>
@@ -4604,7 +4640,7 @@
       <c r="D39" s="33"/>
       <c r="E39" s="17"/>
       <c r="F39" s="49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G39" s="35">
         <f>SUM(G5:G38)</f>
@@ -4615,7 +4651,7 @@
         <v>44090</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
@@ -4665,7 +4701,7 @@
     </row>
     <row r="44" spans="2:12">
       <c r="B44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E44" s="41">
         <v>45737</v>
@@ -4728,11 +4764,11 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="145" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
       <c r="E2" s="167"/>
       <c r="F2" s="31">
         <f>SUM(E4:E7)</f>
@@ -4742,8 +4778,8 @@
         <v>46</v>
       </c>
       <c r="H2" s="169"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
       <c r="K2" s="167"/>
       <c r="L2" s="42"/>
     </row>
@@ -4952,14 +4988,14 @@
   <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
@@ -4975,19 +5011,19 @@
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="2:12">
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1">
-      <c r="B4" s="164" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
+      <c r="B4" s="145" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
       <c r="F4" s="167"/>
       <c r="G4" s="31">
         <f>SUM(F6:F9)</f>
@@ -4997,22 +5033,22 @@
         <v>46</v>
       </c>
       <c r="I4" s="169"/>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
       <c r="L4" s="42"/>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>144</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>11</v>
@@ -5034,16 +5070,16 @@
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="133" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="133" t="s">
         <v>139</v>
+      </c>
+      <c r="C6" s="185" t="s">
+        <v>151</v>
       </c>
       <c r="D6" s="33">
         <v>45736</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F6" s="132">
         <v>3600.01</v>
@@ -5062,16 +5098,16 @@
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="133" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C7" s="133" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D7" s="33">
         <v>45737</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F7" s="132">
         <v>3602.87</v>
@@ -5090,16 +5126,16 @@
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="133" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C8" s="133" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D8" s="33">
         <v>45738</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F8" s="132">
         <v>3491.78</v>
@@ -5185,8 +5221,8 @@
   </sheetPr>
   <dimension ref="B2:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5234,15 +5270,15 @@
       <c r="D3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="180">
-        <v>520</v>
-      </c>
-      <c r="F3" s="180"/>
+      <c r="E3" s="189" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="175"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="180" t="s">
+      <c r="H3" s="175" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="180"/>
+      <c r="I3" s="175"/>
       <c r="J3" s="8" t="s">
         <v>91</v>
       </c>
@@ -5254,7 +5290,7 @@
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="181" t="s">
         <v>94</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -5266,14 +5302,14 @@
       <c r="E4" s="129">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="186" t="s">
         <v>96</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="181" t="s">
+      <c r="H4" s="176" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="181"/>
+      <c r="I4" s="176"/>
       <c r="J4" s="6" t="s">
         <v>96</v>
       </c>
@@ -5283,23 +5319,23 @@
       <c r="L4" s="16"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="176"/>
+      <c r="B5" s="182"/>
       <c r="C5" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="182" t="s">
+      <c r="D5" s="177" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="183"/>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="178"/>
+      <c r="F5" s="187" t="s">
         <v>101</v>
       </c>
       <c r="G5" s="13"/>
-      <c r="H5" s="182" t="s">
+      <c r="H5" s="177" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="184"/>
-      <c r="J5" s="183"/>
+      <c r="I5" s="179"/>
+      <c r="J5" s="178"/>
       <c r="K5" s="11" t="s">
         <v>100</v>
       </c>
@@ -5307,23 +5343,23 @@
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="2"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="188" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="148" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="166" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="166"/>
+      <c r="F6" s="148"/>
       <c r="G6" s="14"/>
       <c r="H6" s="168" t="s">
-        <v>104</v>
-      </c>
-      <c r="I6" s="179"/>
+        <v>103</v>
+      </c>
+      <c r="I6" s="180"/>
       <c r="J6" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K6" s="27" t="s">
         <v>101</v>
@@ -5333,154 +5369,154 @@
     <row r="7" spans="2:12">
       <c r="B7" s="2"/>
       <c r="C7" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="148" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="166" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="166"/>
+      <c r="E7" s="148"/>
       <c r="F7" s="12" t="s">
         <v>101</v>
       </c>
       <c r="G7" s="15"/>
-      <c r="H7" s="164" t="s">
+      <c r="H7" s="145" t="s">
         <v>101</v>
       </c>
-      <c r="I7" s="165"/>
-      <c r="J7" s="165"/>
-      <c r="K7" s="165"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="177" t="s">
+      <c r="B8" s="183" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="E8" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="185" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="147" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="17" t="s">
+      <c r="I8" s="148"/>
+      <c r="J8" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="184"/>
+      <c r="C9" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="137" t="s">
+      <c r="D9" s="168" t="s">
         <v>113</v>
       </c>
-      <c r="I8" s="166"/>
-      <c r="J8" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="L8" s="17"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="178"/>
-      <c r="C9" s="10" t="s">
+      <c r="E9" s="180"/>
+      <c r="F9" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="147" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="148"/>
+      <c r="J9" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="168" t="s">
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="184" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="179"/>
-      <c r="F9" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="137" t="s">
-        <v>111</v>
-      </c>
-      <c r="I9" s="166"/>
-      <c r="J9" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="K9" s="29" t="s">
+      <c r="C10" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="178" t="s">
+      <c r="D10" s="147" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="137" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="166"/>
+      <c r="E10" s="148"/>
       <c r="F10" s="12" t="s">
         <v>101</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K10" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="184"/>
+      <c r="C11" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="178"/>
-      <c r="C11" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="164" t="s">
+      <c r="E11" s="145" t="s">
         <v>101</v>
       </c>
       <c r="F11" s="167"/>
       <c r="G11" s="20"/>
       <c r="H11" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="J11" s="164" t="s">
-        <v>124</v>
-      </c>
-      <c r="K11" s="165"/>
+        <v>121</v>
+      </c>
+      <c r="J11" s="145" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" s="146"/>
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="130" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I12" s="130" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K12" s="130" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L12" s="17"/>
     </row>
@@ -5496,14 +5532,14 @@
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -5518,17 +5554,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:I8"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
@@ -5536,6 +5561,17 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>

--- a/msff/xls/ex_China.xlsx
+++ b/msff/xls/ex_China.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37797880-9F9B-4E94-B0F0-514BD96F0A86}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA6CE88-C260-49B0-823E-3C866E1850CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22230" windowHeight="9750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17460" yWindow="-21600" windowWidth="21090" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,23 @@
     <sheet name="Channel500" sheetId="5" r:id="rId4"/>
     <sheet name="channels" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="155">
   <si>
     <t>TJJ USD
 bal</t>
@@ -1093,6 +1104,54 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1100,9 +1159,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1121,15 +1177,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1153,42 +1200,6 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1227,6 +1238,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1238,27 +1270,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1573,63 +1584,63 @@
     </row>
     <row r="2" spans="2:20">
       <c r="D2" s="73"/>
-      <c r="G2" s="146" t="s">
+      <c r="G2" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="146" t="s">
+      <c r="H2" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="163" t="s">
+      <c r="J2" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="136" t="s">
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="152" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="15" customHeight="1">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="164" t="s">
+      <c r="C3" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="165"/>
-      <c r="E3" s="166" t="s">
+      <c r="D3" s="146"/>
+      <c r="E3" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="167"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
       <c r="I3" s="112"/>
-      <c r="J3" s="139" t="s">
+      <c r="J3" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="168"/>
+      <c r="K3" s="150"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="139" t="s">
+      <c r="M3" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="139"/>
-      <c r="O3" s="168"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="150"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="139" t="s">
+      <c r="Q3" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="168"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="136"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="152"/>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="139"/>
+      <c r="B4" s="149"/>
       <c r="C4" s="32" t="s">
         <v>10</v>
       </c>
@@ -1642,8 +1653,8 @@
       <c r="F4" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
       <c r="J4" s="57" t="s">
         <v>14</v>
       </c>
@@ -1841,10 +1852,10 @@
       <c r="D9" s="49">
         <v>71433</v>
       </c>
-      <c r="E9" s="147" t="s">
+      <c r="E9" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="148"/>
+      <c r="F9" s="143"/>
       <c r="G9" s="78">
         <v>10000</v>
       </c>
@@ -1886,7 +1897,7 @@
       <c r="T10" s="23"/>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="140">
+      <c r="B11" s="155">
         <v>45594</v>
       </c>
       <c r="C11" s="23" t="s">
@@ -1928,7 +1939,7 @@
       <c r="T11" s="23"/>
     </row>
     <row r="12" spans="2:20" ht="15" customHeight="1">
-      <c r="B12" s="141"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="92"/>
       <c r="D12" s="49"/>
       <c r="E12" s="88"/>
@@ -1965,10 +1976,10 @@
       <c r="D13" s="49">
         <v>71397</v>
       </c>
-      <c r="E13" s="147" t="s">
+      <c r="E13" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="148"/>
+      <c r="F13" s="143"/>
       <c r="G13" s="82">
         <f>G12+10000</f>
         <v>12000</v>
@@ -2002,19 +2013,19 @@
       <c r="E14" s="80">
         <v>3400</v>
       </c>
-      <c r="F14" s="157" t="s">
+      <c r="F14" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="158"/>
-      <c r="K14" s="158"/>
-      <c r="L14" s="158"/>
-      <c r="M14" s="158"/>
-      <c r="N14" s="158"/>
-      <c r="O14" s="158"/>
-      <c r="P14" s="159"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="137"/>
+      <c r="O14" s="137"/>
+      <c r="P14" s="138"/>
       <c r="Q14" s="126">
         <f>E14</f>
         <v>3400</v>
@@ -2052,7 +2063,7 @@
       <c r="T15" s="23"/>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="142">
+      <c r="B16" s="157">
         <v>45632</v>
       </c>
       <c r="C16" s="23" t="s">
@@ -2089,7 +2100,7 @@
       <c r="T16" s="23"/>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="143"/>
+      <c r="B17" s="158"/>
       <c r="C17" s="23"/>
       <c r="D17" s="87"/>
       <c r="E17" s="95"/>
@@ -2173,11 +2184,11 @@
       <c r="E19" s="80">
         <v>10000</v>
       </c>
-      <c r="F19" s="160" t="s">
+      <c r="F19" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="161"/>
-      <c r="H19" s="162"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="141"/>
       <c r="I19" s="118"/>
       <c r="J19" s="80">
         <v>10000</v>
@@ -2210,10 +2221,10 @@
       <c r="D20" s="87">
         <v>73469</v>
       </c>
-      <c r="E20" s="147" t="s">
+      <c r="E20" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="148"/>
+      <c r="F20" s="143"/>
       <c r="G20" s="103">
         <v>12000</v>
       </c>
@@ -2264,10 +2275,10 @@
       <c r="D22" s="49">
         <v>214481</v>
       </c>
-      <c r="E22" s="147" t="s">
+      <c r="E22" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="148"/>
+      <c r="F22" s="143"/>
       <c r="G22" s="106">
         <v>42000</v>
       </c>
@@ -2303,12 +2314,12 @@
       <c r="G23" s="106">
         <v>0</v>
       </c>
-      <c r="H23" s="149" t="s">
+      <c r="H23" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="150"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="151"/>
+      <c r="I23" s="162"/>
+      <c r="J23" s="162"/>
+      <c r="K23" s="163"/>
       <c r="L23" s="116"/>
       <c r="M23" s="106">
         <v>42000</v>
@@ -2359,7 +2370,7 @@
         <f>40000-2550</f>
         <v>37450</v>
       </c>
-      <c r="E25" s="144" t="s">
+      <c r="E25" s="159" t="s">
         <v>38</v>
       </c>
       <c r="F25" s="106">
@@ -2368,22 +2379,22 @@
       <c r="G25" s="106"/>
       <c r="H25" s="107"/>
       <c r="I25" s="107"/>
-      <c r="J25" s="155">
+      <c r="J25" s="167">
         <v>10000</v>
       </c>
       <c r="K25" s="121">
         <v>45723</v>
       </c>
       <c r="L25" s="116"/>
-      <c r="M25" s="152" t="s">
+      <c r="M25" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="N25" s="153"/>
-      <c r="O25" s="153"/>
-      <c r="P25" s="153"/>
-      <c r="Q25" s="153"/>
-      <c r="R25" s="153"/>
-      <c r="S25" s="154"/>
+      <c r="N25" s="165"/>
+      <c r="O25" s="165"/>
+      <c r="P25" s="165"/>
+      <c r="Q25" s="165"/>
+      <c r="R25" s="165"/>
+      <c r="S25" s="166"/>
       <c r="T25" s="23"/>
     </row>
     <row r="26" spans="2:21">
@@ -2395,27 +2406,27 @@
         <f>5000*7.49</f>
         <v>37450</v>
       </c>
-      <c r="E26" s="145"/>
+      <c r="E26" s="160"/>
       <c r="F26" s="106">
         <v>5000</v>
       </c>
       <c r="G26" s="106"/>
       <c r="H26" s="109"/>
       <c r="I26" s="118"/>
-      <c r="J26" s="156"/>
+      <c r="J26" s="168"/>
       <c r="K26" s="121" t="s">
         <v>40</v>
       </c>
       <c r="L26" s="116"/>
-      <c r="M26" s="152" t="s">
+      <c r="M26" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="N26" s="153"/>
-      <c r="O26" s="153"/>
-      <c r="P26" s="153"/>
-      <c r="Q26" s="153"/>
-      <c r="R26" s="153"/>
-      <c r="S26" s="154"/>
+      <c r="N26" s="165"/>
+      <c r="O26" s="165"/>
+      <c r="P26" s="165"/>
+      <c r="Q26" s="165"/>
+      <c r="R26" s="165"/>
+      <c r="S26" s="166"/>
       <c r="T26" s="23"/>
     </row>
     <row r="27" spans="2:21">
@@ -2473,38 +2484,38 @@
       <c r="I29" s="124"/>
     </row>
     <row r="30" spans="2:21" ht="17.25">
-      <c r="B30" s="137" t="s">
+      <c r="B30" s="153" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="137"/>
-      <c r="D30" s="137"/>
-      <c r="E30" s="137"/>
-      <c r="F30" s="137"/>
-      <c r="G30" s="137"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="153"/>
       <c r="H30" s="111"/>
       <c r="I30" s="124"/>
     </row>
     <row r="31" spans="2:21">
-      <c r="B31" s="137" t="s">
+      <c r="B31" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="137"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="153"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="153"/>
       <c r="H31" s="111"/>
       <c r="I31" s="124"/>
     </row>
     <row r="32" spans="2:21">
-      <c r="B32" s="137" t="s">
+      <c r="B32" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="137"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="137"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
       <c r="H32" s="111"/>
       <c r="I32" s="124"/>
     </row>
@@ -3525,16 +3536,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F14:P14"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J2:S2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="H2:H4"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B32:G32"/>
@@ -3551,6 +3552,16 @@
     <mergeCell ref="J25:J26"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="F14:P14"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J2:S2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -3561,8 +3572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3589,24 +3600,24 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1">
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
       <c r="E3" s="169"/>
       <c r="F3" s="50"/>
       <c r="G3" s="170" t="s">
         <v>47</v>
       </c>
       <c r="H3" s="171"/>
-      <c r="I3" s="167"/>
+      <c r="I3" s="148"/>
       <c r="J3" s="169"/>
       <c r="K3" s="60"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="147" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="169"/>
@@ -3625,7 +3636,7 @@
       <c r="H4" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="166" t="s">
+      <c r="I4" s="147" t="s">
         <v>52</v>
       </c>
       <c r="J4" s="172"/>
@@ -3918,7 +3929,7 @@
       <c r="I14" s="175" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="140">
+      <c r="J14" s="155">
         <v>45598</v>
       </c>
       <c r="K14" s="6" t="s">
@@ -3975,7 +3986,7 @@
         <v>-</v>
       </c>
       <c r="I16" s="177"/>
-      <c r="J16" s="141"/>
+      <c r="J16" s="156"/>
       <c r="K16" s="6" t="s">
         <v>57</v>
       </c>
@@ -4166,7 +4177,7 @@
       <c r="L22" s="62"/>
       <c r="N22" s="63">
         <f>SUM(E5:E39)</f>
-        <v>389598.12999999995</v>
+        <v>399564.66999999993</v>
       </c>
       <c r="O22" t="s">
         <v>69</v>
@@ -4310,7 +4321,7 @@
       <c r="L26" s="62"/>
       <c r="M26" s="64">
         <f>SUM(N22:N24)</f>
-        <v>476292.78999999992</v>
+        <v>486259.3299999999</v>
       </c>
       <c r="N26" s="65"/>
       <c r="O26" s="65" t="s">
@@ -4484,7 +4495,7 @@
       <c r="L31" s="62"/>
       <c r="M31" s="64">
         <f>M26+M30</f>
-        <v>1420592.79</v>
+        <v>1430559.3299999998</v>
       </c>
       <c r="N31" s="65"/>
       <c r="O31" s="65"/>
@@ -4560,7 +4571,7 @@
       <c r="D34" s="37">
         <v>45737</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="51">
         <v>70000</v>
       </c>
       <c r="F34" s="52" t="s">
@@ -4586,16 +4597,33 @@
       <c r="L34" s="62"/>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="23"/>
+      <c r="B35" s="23" t="s">
+        <v>64</v>
+      </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="6"/>
+      <c r="D35" s="37">
+        <v>45744</v>
+      </c>
+      <c r="E35" s="23">
+        <v>9966.5400000000009</v>
+      </c>
+      <c r="F35" s="40">
+        <f>E35/H35</f>
+        <v>5.4461967213114759</v>
+      </c>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41">
+        <v>1830</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J35" s="37">
+        <v>45744</v>
+      </c>
+      <c r="K35" s="23" t="s">
+        <v>60</v>
+      </c>
       <c r="L35" s="62"/>
     </row>
     <row r="36" spans="2:12">
@@ -4651,7 +4679,7 @@
       </c>
       <c r="H39" s="57">
         <f>SUM(H5:H38)</f>
-        <v>44090</v>
+        <v>45920</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>76</v>
@@ -4674,7 +4702,7 @@
     <row r="41" spans="2:12">
       <c r="F41" s="43">
         <f>B2+G39+5.434*H39+ChannelX!F2+Channel500!G4</f>
-        <v>476279.72</v>
+        <v>486223.94</v>
       </c>
       <c r="G41" s="173" t="s">
         <v>79</v>
@@ -4687,7 +4715,7 @@
     <row r="42" spans="2:12">
       <c r="F42" s="43">
         <f>M26</f>
-        <v>476292.78999999992</v>
+        <v>486259.3299999999</v>
       </c>
       <c r="G42" s="59" t="s">
         <v>154</v>
@@ -4769,11 +4797,11 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1">
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="147" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
       <c r="E2" s="169"/>
       <c r="F2" s="35">
         <f>SUM(E4:E7)</f>
@@ -4783,8 +4811,8 @@
         <v>47</v>
       </c>
       <c r="H2" s="171"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
       <c r="K2" s="169"/>
       <c r="L2" s="46"/>
     </row>
@@ -5022,12 +5050,12 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1">
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
       <c r="F4" s="169"/>
       <c r="G4" s="35">
         <f>SUM(F6:F9)</f>
@@ -5036,8 +5064,8 @@
       <c r="H4" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
       <c r="K4" s="46"/>
     </row>
     <row r="5" spans="2:11">
@@ -5062,7 +5090,7 @@
       <c r="H5" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="166" t="s">
+      <c r="I5" s="147" t="s">
         <v>52</v>
       </c>
       <c r="J5" s="172"/>
@@ -5273,15 +5301,15 @@
       <c r="D3" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="187" t="s">
+      <c r="E3" s="182" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="188"/>
+      <c r="F3" s="183"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="188" t="s">
+      <c r="H3" s="183" t="s">
         <v>112</v>
       </c>
-      <c r="I3" s="188"/>
+      <c r="I3" s="183"/>
       <c r="J3" s="8" t="s">
         <v>113</v>
       </c>
@@ -5293,7 +5321,7 @@
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="182" t="s">
+      <c r="B4" s="189" t="s">
         <v>116</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -5309,10 +5337,10 @@
         <v>118</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="189" t="s">
+      <c r="H4" s="184" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="189"/>
+      <c r="I4" s="184"/>
       <c r="J4" s="6" t="s">
         <v>118</v>
       </c>
@@ -5322,23 +5350,23 @@
       <c r="L4" s="21"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="183"/>
+      <c r="B5" s="190"/>
       <c r="C5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="190" t="s">
+      <c r="D5" s="185" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="191"/>
+      <c r="E5" s="186"/>
       <c r="F5" s="15" t="s">
         <v>123</v>
       </c>
       <c r="G5" s="16"/>
-      <c r="H5" s="190" t="s">
+      <c r="H5" s="185" t="s">
         <v>124</v>
       </c>
-      <c r="I5" s="192"/>
-      <c r="J5" s="191"/>
+      <c r="I5" s="187"/>
+      <c r="J5" s="186"/>
       <c r="K5" s="14" t="s">
         <v>122</v>
       </c>
@@ -5352,15 +5380,15 @@
       <c r="D6" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="168" t="s">
+      <c r="E6" s="150" t="s">
         <v>127</v>
       </c>
-      <c r="F6" s="168"/>
+      <c r="F6" s="150"/>
       <c r="G6" s="18"/>
       <c r="H6" s="170" t="s">
         <v>126</v>
       </c>
-      <c r="I6" s="186"/>
+      <c r="I6" s="188"/>
       <c r="J6" s="31" t="s">
         <v>128</v>
       </c>
@@ -5374,24 +5402,24 @@
       <c r="C7" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="168" t="s">
+      <c r="D7" s="150" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="168"/>
+      <c r="E7" s="150"/>
       <c r="F7" s="19" t="s">
         <v>123</v>
       </c>
       <c r="G7" s="20"/>
-      <c r="H7" s="166" t="s">
+      <c r="H7" s="147" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
       <c r="L7" s="23"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="184" t="s">
+      <c r="B8" s="191" t="s">
         <v>131</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -5407,10 +5435,10 @@
         <v>134</v>
       </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="139" t="s">
+      <c r="H8" s="149" t="s">
         <v>135</v>
       </c>
-      <c r="I8" s="168"/>
+      <c r="I8" s="150"/>
       <c r="J8" s="32" t="s">
         <v>128</v>
       </c>
@@ -5420,22 +5448,22 @@
       <c r="L8" s="23"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="185"/>
+      <c r="B9" s="192"/>
       <c r="C9" s="10" t="s">
         <v>136</v>
       </c>
       <c r="D9" s="170" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="186"/>
+      <c r="E9" s="188"/>
       <c r="F9" s="6" t="s">
         <v>133</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="139" t="s">
+      <c r="H9" s="149" t="s">
         <v>133</v>
       </c>
-      <c r="I9" s="168"/>
+      <c r="I9" s="150"/>
       <c r="J9" s="27" t="s">
         <v>133</v>
       </c>
@@ -5445,16 +5473,16 @@
       <c r="L9" s="23"/>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="185" t="s">
+      <c r="B10" s="192" t="s">
         <v>139</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="139" t="s">
+      <c r="D10" s="149" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="168"/>
+      <c r="E10" s="150"/>
       <c r="F10" s="19" t="s">
         <v>123</v>
       </c>
@@ -5474,14 +5502,14 @@
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="185"/>
+      <c r="B11" s="192"/>
       <c r="C11" s="10" t="s">
         <v>143</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="166" t="s">
+      <c r="E11" s="147" t="s">
         <v>123</v>
       </c>
       <c r="F11" s="169"/>
@@ -5492,10 +5520,10 @@
       <c r="I11" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="J11" s="166" t="s">
+      <c r="J11" s="147" t="s">
         <v>146</v>
       </c>
-      <c r="K11" s="167"/>
+      <c r="K11" s="148"/>
       <c r="L11" s="23"/>
     </row>
     <row r="12" spans="2:12">
@@ -5557,17 +5585,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:I8"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
@@ -5575,6 +5592,17 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>

--- a/msff/xls/ex_China.xlsx
+++ b/msff/xls/ex_China.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA6CE88-C260-49B0-823E-3C866E1850CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200518D8-D868-4DB7-AEC0-382CC728260A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17460" yWindow="-21600" windowWidth="21090" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17460" yWindow="-21600" windowWidth="21090" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -1104,54 +1104,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1159,6 +1111,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1177,6 +1132,15 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1200,6 +1164,42 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1238,6 +1238,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1255,21 +1270,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1549,7 +1549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U235"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
@@ -1584,63 +1584,63 @@
     </row>
     <row r="2" spans="2:20">
       <c r="D2" s="73"/>
-      <c r="G2" s="151" t="s">
+      <c r="G2" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="151" t="s">
+      <c r="H2" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="144" t="s">
+      <c r="J2" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="144"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="152" t="s">
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="136" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="15" customHeight="1">
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="147" t="s">
+      <c r="D3" s="165"/>
+      <c r="E3" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
       <c r="I3" s="112"/>
-      <c r="J3" s="149" t="s">
+      <c r="J3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="150"/>
+      <c r="K3" s="168"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="149" t="s">
+      <c r="M3" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="149"/>
-      <c r="O3" s="150"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="168"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="149" t="s">
+      <c r="Q3" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="150"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="152"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="136"/>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="149"/>
+      <c r="B4" s="139"/>
       <c r="C4" s="32" t="s">
         <v>10</v>
       </c>
@@ -1653,8 +1653,8 @@
       <c r="F4" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
       <c r="J4" s="57" t="s">
         <v>14</v>
       </c>
@@ -1852,10 +1852,10 @@
       <c r="D9" s="49">
         <v>71433</v>
       </c>
-      <c r="E9" s="142" t="s">
+      <c r="E9" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="143"/>
+      <c r="F9" s="148"/>
       <c r="G9" s="78">
         <v>10000</v>
       </c>
@@ -1897,7 +1897,7 @@
       <c r="T10" s="23"/>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="155">
+      <c r="B11" s="140">
         <v>45594</v>
       </c>
       <c r="C11" s="23" t="s">
@@ -1939,7 +1939,7 @@
       <c r="T11" s="23"/>
     </row>
     <row r="12" spans="2:20" ht="15" customHeight="1">
-      <c r="B12" s="156"/>
+      <c r="B12" s="141"/>
       <c r="C12" s="92"/>
       <c r="D12" s="49"/>
       <c r="E12" s="88"/>
@@ -1976,10 +1976,10 @@
       <c r="D13" s="49">
         <v>71397</v>
       </c>
-      <c r="E13" s="142" t="s">
+      <c r="E13" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="143"/>
+      <c r="F13" s="148"/>
       <c r="G13" s="82">
         <f>G12+10000</f>
         <v>12000</v>
@@ -2013,19 +2013,19 @@
       <c r="E14" s="80">
         <v>3400</v>
       </c>
-      <c r="F14" s="136" t="s">
+      <c r="F14" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="137"/>
-      <c r="L14" s="137"/>
-      <c r="M14" s="137"/>
-      <c r="N14" s="137"/>
-      <c r="O14" s="137"/>
-      <c r="P14" s="138"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="158"/>
+      <c r="L14" s="158"/>
+      <c r="M14" s="158"/>
+      <c r="N14" s="158"/>
+      <c r="O14" s="158"/>
+      <c r="P14" s="159"/>
       <c r="Q14" s="126">
         <f>E14</f>
         <v>3400</v>
@@ -2063,7 +2063,7 @@
       <c r="T15" s="23"/>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="157">
+      <c r="B16" s="142">
         <v>45632</v>
       </c>
       <c r="C16" s="23" t="s">
@@ -2100,7 +2100,7 @@
       <c r="T16" s="23"/>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="158"/>
+      <c r="B17" s="143"/>
       <c r="C17" s="23"/>
       <c r="D17" s="87"/>
       <c r="E17" s="95"/>
@@ -2184,11 +2184,11 @@
       <c r="E19" s="80">
         <v>10000</v>
       </c>
-      <c r="F19" s="139" t="s">
+      <c r="F19" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="140"/>
-      <c r="H19" s="141"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="162"/>
       <c r="I19" s="118"/>
       <c r="J19" s="80">
         <v>10000</v>
@@ -2221,10 +2221,10 @@
       <c r="D20" s="87">
         <v>73469</v>
       </c>
-      <c r="E20" s="142" t="s">
+      <c r="E20" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="143"/>
+      <c r="F20" s="148"/>
       <c r="G20" s="103">
         <v>12000</v>
       </c>
@@ -2275,10 +2275,10 @@
       <c r="D22" s="49">
         <v>214481</v>
       </c>
-      <c r="E22" s="142" t="s">
+      <c r="E22" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="143"/>
+      <c r="F22" s="148"/>
       <c r="G22" s="106">
         <v>42000</v>
       </c>
@@ -2314,12 +2314,12 @@
       <c r="G23" s="106">
         <v>0</v>
       </c>
-      <c r="H23" s="161" t="s">
+      <c r="H23" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="162"/>
-      <c r="J23" s="162"/>
-      <c r="K23" s="163"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="151"/>
       <c r="L23" s="116"/>
       <c r="M23" s="106">
         <v>42000</v>
@@ -2370,7 +2370,7 @@
         <f>40000-2550</f>
         <v>37450</v>
       </c>
-      <c r="E25" s="159" t="s">
+      <c r="E25" s="144" t="s">
         <v>38</v>
       </c>
       <c r="F25" s="106">
@@ -2379,22 +2379,22 @@
       <c r="G25" s="106"/>
       <c r="H25" s="107"/>
       <c r="I25" s="107"/>
-      <c r="J25" s="167">
+      <c r="J25" s="155">
         <v>10000</v>
       </c>
       <c r="K25" s="121">
         <v>45723</v>
       </c>
       <c r="L25" s="116"/>
-      <c r="M25" s="164" t="s">
+      <c r="M25" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="N25" s="165"/>
-      <c r="O25" s="165"/>
-      <c r="P25" s="165"/>
-      <c r="Q25" s="165"/>
-      <c r="R25" s="165"/>
-      <c r="S25" s="166"/>
+      <c r="N25" s="153"/>
+      <c r="O25" s="153"/>
+      <c r="P25" s="153"/>
+      <c r="Q25" s="153"/>
+      <c r="R25" s="153"/>
+      <c r="S25" s="154"/>
       <c r="T25" s="23"/>
     </row>
     <row r="26" spans="2:21">
@@ -2406,27 +2406,27 @@
         <f>5000*7.49</f>
         <v>37450</v>
       </c>
-      <c r="E26" s="160"/>
+      <c r="E26" s="145"/>
       <c r="F26" s="106">
         <v>5000</v>
       </c>
       <c r="G26" s="106"/>
       <c r="H26" s="109"/>
       <c r="I26" s="118"/>
-      <c r="J26" s="168"/>
+      <c r="J26" s="156"/>
       <c r="K26" s="121" t="s">
         <v>40</v>
       </c>
       <c r="L26" s="116"/>
-      <c r="M26" s="164" t="s">
+      <c r="M26" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="N26" s="165"/>
-      <c r="O26" s="165"/>
-      <c r="P26" s="165"/>
-      <c r="Q26" s="165"/>
-      <c r="R26" s="165"/>
-      <c r="S26" s="166"/>
+      <c r="N26" s="153"/>
+      <c r="O26" s="153"/>
+      <c r="P26" s="153"/>
+      <c r="Q26" s="153"/>
+      <c r="R26" s="153"/>
+      <c r="S26" s="154"/>
       <c r="T26" s="23"/>
     </row>
     <row r="27" spans="2:21">
@@ -2484,38 +2484,38 @@
       <c r="I29" s="124"/>
     </row>
     <row r="30" spans="2:21" ht="17.25">
-      <c r="B30" s="153" t="s">
+      <c r="B30" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="153"/>
-      <c r="D30" s="153"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="153"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
       <c r="H30" s="111"/>
       <c r="I30" s="124"/>
     </row>
     <row r="31" spans="2:21">
-      <c r="B31" s="153" t="s">
+      <c r="B31" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="153"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="153"/>
+      <c r="C31" s="137"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
       <c r="H31" s="111"/>
       <c r="I31" s="124"/>
     </row>
     <row r="32" spans="2:21">
-      <c r="B32" s="153" t="s">
+      <c r="B32" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="153"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
       <c r="H32" s="111"/>
       <c r="I32" s="124"/>
     </row>
@@ -3536,6 +3536,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="F14:P14"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J2:S2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="H2:H4"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B32:G32"/>
@@ -3552,16 +3562,6 @@
     <mergeCell ref="J25:J26"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="F14:P14"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J2:S2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -3572,8 +3572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3600,24 +3600,24 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
       <c r="E3" s="169"/>
       <c r="F3" s="50"/>
       <c r="G3" s="170" t="s">
         <v>47</v>
       </c>
       <c r="H3" s="171"/>
-      <c r="I3" s="148"/>
+      <c r="I3" s="167"/>
       <c r="J3" s="169"/>
       <c r="K3" s="60"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="147" t="s">
+      <c r="B4" s="166" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="169"/>
@@ -3636,7 +3636,7 @@
       <c r="H4" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="147" t="s">
+      <c r="I4" s="166" t="s">
         <v>52</v>
       </c>
       <c r="J4" s="172"/>
@@ -3929,7 +3929,7 @@
       <c r="I14" s="175" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="155">
+      <c r="J14" s="140">
         <v>45598</v>
       </c>
       <c r="K14" s="6" t="s">
@@ -3986,7 +3986,7 @@
         <v>-</v>
       </c>
       <c r="I16" s="177"/>
-      <c r="J16" s="156"/>
+      <c r="J16" s="141"/>
       <c r="K16" s="6" t="s">
         <v>57</v>
       </c>
@@ -4797,11 +4797,11 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1">
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="166" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
       <c r="E2" s="169"/>
       <c r="F2" s="35">
         <f>SUM(E4:E7)</f>
@@ -4811,8 +4811,8 @@
         <v>47</v>
       </c>
       <c r="H2" s="171"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
       <c r="K2" s="169"/>
       <c r="L2" s="46"/>
     </row>
@@ -5050,12 +5050,12 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1">
-      <c r="B4" s="147" t="s">
+      <c r="B4" s="166" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
       <c r="F4" s="169"/>
       <c r="G4" s="35">
         <f>SUM(F6:F9)</f>
@@ -5064,8 +5064,8 @@
       <c r="H4" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
       <c r="K4" s="46"/>
     </row>
     <row r="5" spans="2:11">
@@ -5090,7 +5090,7 @@
       <c r="H5" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="147" t="s">
+      <c r="I5" s="166" t="s">
         <v>52</v>
       </c>
       <c r="J5" s="172"/>
@@ -5252,8 +5252,8 @@
   </sheetPr>
   <dimension ref="B2:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5301,15 +5301,15 @@
       <c r="D3" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="182" t="s">
+      <c r="E3" s="187" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="183"/>
+      <c r="F3" s="188"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="183" t="s">
+      <c r="H3" s="188" t="s">
         <v>112</v>
       </c>
-      <c r="I3" s="183"/>
+      <c r="I3" s="188"/>
       <c r="J3" s="8" t="s">
         <v>113</v>
       </c>
@@ -5321,7 +5321,7 @@
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="189" t="s">
+      <c r="B4" s="182" t="s">
         <v>116</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -5337,10 +5337,10 @@
         <v>118</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="184" t="s">
+      <c r="H4" s="189" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="184"/>
+      <c r="I4" s="189"/>
       <c r="J4" s="6" t="s">
         <v>118</v>
       </c>
@@ -5350,23 +5350,23 @@
       <c r="L4" s="21"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="190"/>
+      <c r="B5" s="183"/>
       <c r="C5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="185" t="s">
+      <c r="D5" s="190" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="186"/>
+      <c r="E5" s="191"/>
       <c r="F5" s="15" t="s">
         <v>123</v>
       </c>
       <c r="G5" s="16"/>
-      <c r="H5" s="185" t="s">
+      <c r="H5" s="190" t="s">
         <v>124</v>
       </c>
-      <c r="I5" s="187"/>
-      <c r="J5" s="186"/>
+      <c r="I5" s="192"/>
+      <c r="J5" s="191"/>
       <c r="K5" s="14" t="s">
         <v>122</v>
       </c>
@@ -5380,15 +5380,15 @@
       <c r="D6" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="150" t="s">
+      <c r="E6" s="168" t="s">
         <v>127</v>
       </c>
-      <c r="F6" s="150"/>
+      <c r="F6" s="168"/>
       <c r="G6" s="18"/>
       <c r="H6" s="170" t="s">
         <v>126</v>
       </c>
-      <c r="I6" s="188"/>
+      <c r="I6" s="186"/>
       <c r="J6" s="31" t="s">
         <v>128</v>
       </c>
@@ -5402,24 +5402,24 @@
       <c r="C7" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="150" t="s">
+      <c r="D7" s="168" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="150"/>
+      <c r="E7" s="168"/>
       <c r="F7" s="19" t="s">
         <v>123</v>
       </c>
       <c r="G7" s="20"/>
-      <c r="H7" s="147" t="s">
+      <c r="H7" s="166" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="148"/>
-      <c r="J7" s="148"/>
-      <c r="K7" s="148"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
       <c r="L7" s="23"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="191" t="s">
+      <c r="B8" s="184" t="s">
         <v>131</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -5435,10 +5435,10 @@
         <v>134</v>
       </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="149" t="s">
+      <c r="H8" s="139" t="s">
         <v>135</v>
       </c>
-      <c r="I8" s="150"/>
+      <c r="I8" s="168"/>
       <c r="J8" s="32" t="s">
         <v>128</v>
       </c>
@@ -5448,22 +5448,22 @@
       <c r="L8" s="23"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="192"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="10" t="s">
         <v>136</v>
       </c>
       <c r="D9" s="170" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="188"/>
+      <c r="E9" s="186"/>
       <c r="F9" s="6" t="s">
         <v>133</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="149" t="s">
+      <c r="H9" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="I9" s="150"/>
+      <c r="I9" s="168"/>
       <c r="J9" s="27" t="s">
         <v>133</v>
       </c>
@@ -5473,16 +5473,16 @@
       <c r="L9" s="23"/>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="192" t="s">
+      <c r="B10" s="185" t="s">
         <v>139</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="149" t="s">
+      <c r="D10" s="139" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="150"/>
+      <c r="E10" s="168"/>
       <c r="F10" s="19" t="s">
         <v>123</v>
       </c>
@@ -5502,14 +5502,14 @@
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="192"/>
+      <c r="B11" s="185"/>
       <c r="C11" s="10" t="s">
         <v>143</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="147" t="s">
+      <c r="E11" s="166" t="s">
         <v>123</v>
       </c>
       <c r="F11" s="169"/>
@@ -5520,10 +5520,10 @@
       <c r="I11" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="J11" s="147" t="s">
+      <c r="J11" s="166" t="s">
         <v>146</v>
       </c>
-      <c r="K11" s="148"/>
+      <c r="K11" s="167"/>
       <c r="L11" s="23"/>
     </row>
     <row r="12" spans="2:12">
@@ -5585,6 +5585,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
@@ -5592,17 +5603,6 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>

--- a/msff/xls/ex_China.xlsx
+++ b/msff/xls/ex_China.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200518D8-D868-4DB7-AEC0-382CC728260A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B9A65A-C8C2-4D53-9935-2CC6A3B7EA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17460" yWindow="-21600" windowWidth="21090" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -35,11 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="155">
-  <si>
-    <t>TJJ USD
-bal</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="160">
   <si>
     <t>paper
 USD @DJDJ</t>
@@ -116,12 +112,6 @@
     <t>!RMB</t>
   </si>
   <si>
-    <t>&lt;&lt;取</t>
-  </si>
-  <si>
-    <t>bal=</t>
-  </si>
-  <si>
     <t>^max</t>
   </si>
   <si>
@@ -131,12 +121,6 @@
     <t>LSQ USD TD</t>
   </si>
   <si>
-    <t>&gt;&gt;&gt; Channel 520 &gt;&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>!change</t>
-  </si>
-  <si>
     <t>S$5468.3</t>
   </si>
   <si>
@@ -146,13 +130,7 @@
     <t>moneyChanger ^^</t>
   </si>
   <si>
-    <t>&gt;&gt;&gt; channelM &gt;&gt;&gt;</t>
-  </si>
-  <si>
     <t>ICBC.sg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>宇鑫 FX
@@ -160,12 +138,6 @@
   </si>
   <si>
     <t>ATM 20k{hsbc + 20k{icbc::TB</t>
-  </si>
-  <si>
-    <t>^ citi.sg</t>
-  </si>
-  <si>
-    <t>2546.6(change{above)+4906wcpay+29997.5hsbc</t>
   </si>
   <si>
     <r>
@@ -537,6 +509,49 @@
   <si>
     <t>total RMB via ChannelA + Channel520 + ChannelX + Channel500</t>
   </si>
+  <si>
+    <t>^^ bal=</t>
+  </si>
+  <si>
+    <t>&gt;&gt; This 10k was untouched until 29 Oct 2024</t>
+  </si>
+  <si>
+    <t>&gt;&gt;取</t>
+  </si>
+  <si>
+    <t>TJJ USD acct
+bal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt;&gt;10k kept in &gt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt;&gt; 30k kept in &gt;&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;Ch 520,H&gt;</t>
+  </si>
+  <si>
+    <t>2546.6(上笔余额)+4906wcpay+29997.5hsbc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           &gt;&gt;&gt; Channel 520 &gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>cumm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                         &gt;&gt;&gt; channelM &gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Citi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           &gt;&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
+  </si>
 </sst>
 </file>
 
@@ -552,12 +567,19 @@
     <numFmt numFmtId="168" formatCode="[$¥-478]#,##0"/>
     <numFmt numFmtId="169" formatCode="[$¥-804]#,##0.000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -652,7 +674,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -772,15 +794,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -799,31 +812,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
+      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -839,31 +843,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -876,7 +880,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -887,17 +891,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -925,7 +929,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -942,8 +946,8 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -990,53 +994,26 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1071,12 +1048,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1088,22 +1062,53 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1111,95 +1116,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1238,6 +1165,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1250,26 +1198,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1547,10 +1544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:U235"/>
+  <dimension ref="B1:U237"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1566,15 +1563,15 @@
     <col min="9" max="9" width="1.140625" style="71" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" style="72" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" customWidth="1"/>
-    <col min="12" max="12" width="0.5703125" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="72" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" style="72" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" customWidth="1"/>
-    <col min="16" max="16" width="0.5703125" customWidth="1"/>
-    <col min="17" max="17" width="6.5703125" style="72" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" customWidth="1"/>
-    <col min="19" max="19" width="8" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="2" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="72" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="0.7109375" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" style="72" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" style="72" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20">
@@ -1584,101 +1581,101 @@
     </row>
     <row r="2" spans="2:20">
       <c r="D2" s="73"/>
-      <c r="G2" s="146" t="s">
+      <c r="G2" s="130" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="146" t="s">
+      <c r="J2" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="163" t="s">
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="136" t="s">
+    </row>
+    <row r="3" spans="2:20" ht="15" customHeight="1">
+      <c r="B3" s="133" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:20" ht="15" customHeight="1">
-      <c r="B3" s="138" t="s">
+      <c r="C3" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="164" t="s">
+      <c r="D3" s="125"/>
+      <c r="E3" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="165"/>
-      <c r="E3" s="166" t="s">
+      <c r="F3" s="127"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="167"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="139" t="s">
+      <c r="K3" s="129"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="168"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="139" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="139"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="139" t="s">
+      <c r="R3" s="128"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="131"/>
+    </row>
+    <row r="4" spans="2:20">
+      <c r="B4" s="128"/>
+      <c r="C4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="168"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="136"/>
-    </row>
-    <row r="4" spans="2:20">
-      <c r="B4" s="139"/>
-      <c r="C4" s="32" t="s">
+      <c r="D4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="E4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="F4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="J4" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="J4" s="57" t="s">
+      <c r="K4" s="23" t="s">
         <v>14</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>15</v>
       </c>
       <c r="L4" s="23"/>
       <c r="M4" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="113" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="23"/>
+      <c r="O4" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="104"/>
       <c r="Q4" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="R4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="23" t="s">
         <v>16</v>
       </c>
       <c r="T4" s="23"/>
@@ -1688,7 +1685,7 @@
         <v>45490</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="49">
         <v>72844</v>
@@ -1703,7 +1700,7 @@
       <c r="H5" s="78">
         <v>0</v>
       </c>
-      <c r="I5" s="114"/>
+      <c r="I5" s="105"/>
       <c r="J5" s="57">
         <f>F5</f>
         <v>10000</v>
@@ -1713,12 +1710,12 @@
       </c>
       <c r="L5" s="37"/>
       <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
       <c r="Q5" s="57"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="37"/>
       <c r="T5" s="23"/>
     </row>
     <row r="6" spans="2:20">
@@ -1726,7 +1723,7 @@
         <v>45511</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="79">
         <v>72000.001000000004</v>
@@ -1748,13 +1745,13 @@
         <v>45511</v>
       </c>
       <c r="L6" s="37"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="37"/>
       <c r="T6" s="23"/>
     </row>
     <row r="7" spans="2:20">
@@ -1762,14 +1759,14 @@
         <v>45512</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="49">
         <v>71992</v>
       </c>
       <c r="E7" s="81"/>
       <c r="F7" s="82">
-        <f>J7+Q7</f>
+        <f>J7+M7</f>
         <v>10000</v>
       </c>
       <c r="G7" s="78">
@@ -1778,7 +1775,7 @@
       <c r="H7" s="78">
         <v>0</v>
       </c>
-      <c r="I7" s="114"/>
+      <c r="I7" s="105"/>
       <c r="J7" s="80">
         <v>4000</v>
       </c>
@@ -1786,21 +1783,21 @@
         <v>45512</v>
       </c>
       <c r="L7" s="37"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="57">
+      <c r="M7" s="57">
         <v>6000</v>
       </c>
-      <c r="R7" s="37">
+      <c r="N7" s="37">
         <v>45514</v>
       </c>
-      <c r="S7" s="23" t="s">
-        <v>21</v>
-      </c>
+      <c r="O7" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="37"/>
       <c r="T7" s="57">
-        <f>SUM(J5:J7)+Q7</f>
+        <f>SUM(J5:J7)+M7</f>
         <v>30000</v>
       </c>
     </row>
@@ -1809,7 +1806,7 @@
         <v>45575</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="49">
         <v>70265</v>
@@ -1824,7 +1821,7 @@
       <c r="H8" s="78">
         <v>0</v>
       </c>
-      <c r="I8" s="114"/>
+      <c r="I8" s="105"/>
       <c r="J8" s="80">
         <f>F8</f>
         <v>10000</v>
@@ -1833,13 +1830,13 @@
         <v>45593</v>
       </c>
       <c r="L8" s="37"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="37"/>
       <c r="T8" s="23"/>
     </row>
     <row r="9" spans="2:20" ht="15" customHeight="1">
@@ -1847,32 +1844,32 @@
         <v>45593</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="49">
         <v>71433</v>
       </c>
-      <c r="E9" s="147" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="148"/>
+      <c r="E9" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="122"/>
       <c r="G9" s="78">
         <v>10000</v>
       </c>
-      <c r="H9" s="78">
-        <v>0</v>
-      </c>
-      <c r="I9" s="114"/>
+      <c r="H9" s="182" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" s="105"/>
       <c r="J9" s="80"/>
       <c r="K9" s="37"/>
       <c r="L9" s="37"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="37"/>
       <c r="T9" s="23"/>
     </row>
     <row r="10" spans="2:20" ht="4.5" customHeight="1">
@@ -1883,87 +1880,89 @@
       <c r="F10" s="85"/>
       <c r="G10" s="86"/>
       <c r="H10" s="86"/>
-      <c r="I10" s="114"/>
+      <c r="I10" s="105"/>
       <c r="J10" s="80"/>
       <c r="K10" s="37"/>
       <c r="L10" s="37"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="37"/>
       <c r="T10" s="23"/>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="140">
+      <c r="B11" s="134">
         <v>45594</v>
       </c>
       <c r="C11" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="88"/>
-      <c r="F11" s="89">
-        <f>J11+Q11</f>
+      <c r="E11" s="165"/>
+      <c r="F11" s="166">
+        <f>J11+M11</f>
         <v>8000</v>
       </c>
-      <c r="G11" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="91"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="80">
+      <c r="G11" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="92"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="167">
         <v>6000</v>
       </c>
-      <c r="K11" s="37">
+      <c r="K11" s="84">
         <v>45594</v>
       </c>
-      <c r="L11" s="37"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="126">
+      <c r="L11" s="84"/>
+      <c r="M11" s="168">
         <v>2000</v>
       </c>
-      <c r="R11" s="127">
+      <c r="N11" s="169">
         <v>45598</v>
       </c>
-      <c r="S11" s="128" t="s">
-        <v>21</v>
-      </c>
+      <c r="O11" s="170" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="170"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="37"/>
       <c r="T11" s="23"/>
     </row>
     <row r="12" spans="2:20" ht="15" customHeight="1">
-      <c r="B12" s="141"/>
-      <c r="C12" s="92"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="49"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="93">
+      <c r="E12" s="81"/>
+      <c r="F12" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="82">
         <f>G9-F11</f>
         <v>2000</v>
       </c>
-      <c r="H12" s="93">
+      <c r="H12" s="82">
         <v>0</v>
       </c>
-      <c r="I12" s="115"/>
+      <c r="I12" s="82"/>
       <c r="J12" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="116"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="117"/>
-      <c r="R12" s="127"/>
+        <v>24</v>
+      </c>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="114"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="107"/>
       <c r="T12" s="23"/>
     </row>
     <row r="13" spans="2:20" ht="15" customHeight="1">
@@ -1971,15 +1970,15 @@
         <v>45595</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="49">
         <v>71397</v>
       </c>
-      <c r="E13" s="147" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="148"/>
+      <c r="E13" s="175" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="176"/>
       <c r="G13" s="82">
         <f>G12+10000</f>
         <v>12000</v>
@@ -1987,1584 +1986,1635 @@
       <c r="H13" s="82">
         <v>0</v>
       </c>
-      <c r="I13" s="115"/>
+      <c r="I13" s="82"/>
       <c r="J13" s="80"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="116"/>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="128"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="107"/>
       <c r="T13" s="23"/>
     </row>
     <row r="14" spans="2:20" ht="15" customHeight="1">
       <c r="B14" s="37">
         <v>45593</v>
       </c>
-      <c r="C14" s="94" t="s">
-        <v>29</v>
+      <c r="C14" s="90" t="s">
+        <v>26</v>
       </c>
       <c r="D14" s="87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="80">
         <v>3400</v>
       </c>
-      <c r="F14" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="158"/>
-      <c r="K14" s="158"/>
-      <c r="L14" s="158"/>
-      <c r="M14" s="158"/>
-      <c r="N14" s="158"/>
-      <c r="O14" s="158"/>
-      <c r="P14" s="159"/>
-      <c r="Q14" s="126">
+      <c r="F14" s="188" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="177"/>
+      <c r="M14" s="113">
         <f>E14</f>
         <v>3400</v>
       </c>
-      <c r="R14" s="127">
+      <c r="N14" s="114">
         <v>45598</v>
       </c>
-      <c r="S14" s="128" t="s">
-        <v>21</v>
-      </c>
+      <c r="O14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="162"/>
+      <c r="R14" s="162"/>
+      <c r="S14" s="162"/>
       <c r="T14" s="57">
-        <f>SUM(J5:J11)+SUM(Q7:Q14)</f>
+        <f>SUM(J5:J11)+SUM(M7:M14)</f>
         <v>51400</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="5.25" customHeight="1">
       <c r="B15" s="84"/>
-      <c r="C15" s="94"/>
+      <c r="C15" s="90"/>
       <c r="D15" s="87"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="116"/>
-      <c r="P15" s="116"/>
-      <c r="Q15" s="125"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="23"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="107"/>
       <c r="T15" s="23"/>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="142">
+      <c r="B16" s="136">
         <v>45632</v>
       </c>
       <c r="C16" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="95"/>
-      <c r="F16" s="96">
+      <c r="E16" s="80"/>
+      <c r="F16" s="80">
         <v>10000</v>
       </c>
-      <c r="G16" s="98" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="99">
+      <c r="G16" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="80">
         <v>0</v>
       </c>
-      <c r="I16" s="118"/>
+      <c r="I16" s="97"/>
       <c r="J16" s="80">
         <v>10000</v>
       </c>
-      <c r="K16" s="105">
+      <c r="K16" s="96">
         <v>45659</v>
       </c>
-      <c r="L16" s="105"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="105"/>
-      <c r="P16" s="105"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="88"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="96"/>
       <c r="T16" s="23"/>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="143"/>
+      <c r="B17" s="137"/>
       <c r="C17" s="23"/>
       <c r="D17" s="87"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="100">
+      <c r="E17" s="80"/>
+      <c r="F17" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="97">
         <f>G13-F16</f>
         <v>2000</v>
       </c>
-      <c r="H17" s="100">
+      <c r="H17" s="97">
         <v>0</v>
       </c>
-      <c r="I17" s="118"/>
+      <c r="I17" s="97"/>
       <c r="J17" s="80"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="116"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="107"/>
       <c r="T17" s="23"/>
     </row>
-    <row r="18" spans="2:21">
-      <c r="B18" s="101">
+    <row r="18" spans="2:21" ht="5.25" customHeight="1">
+      <c r="B18" s="118"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="23"/>
+    </row>
+    <row r="19" spans="2:21">
+      <c r="B19" s="94">
         <v>45659</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="87">
+      <c r="C19" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="87">
         <v>73183</v>
       </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="102">
+      <c r="E19" s="80"/>
+      <c r="F19" s="82">
+        <f>J19+M19</f>
         <v>10000</v>
       </c>
-      <c r="G18" s="103" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="103">
-        <v>0</v>
-      </c>
-      <c r="I18" s="118"/>
-      <c r="J18" s="80">
+      <c r="G19" s="184" t="s">
+        <v>152</v>
+      </c>
+      <c r="H19" s="185"/>
+      <c r="I19" s="186"/>
+      <c r="J19" s="80">
         <v>6000</v>
       </c>
-      <c r="K18" s="105">
+      <c r="K19" s="96">
         <v>45660</v>
       </c>
-      <c r="L18" s="119"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="105"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="129">
-        <f>F18-J18</f>
+      <c r="L19" s="96"/>
+      <c r="M19" s="115">
         <v>4000</v>
       </c>
-      <c r="R18" s="130">
+      <c r="N19" s="116">
         <v>45666</v>
       </c>
-      <c r="S18" s="128" t="s">
-        <v>32</v>
-      </c>
-      <c r="T18" s="23"/>
-    </row>
-    <row r="19" spans="2:21">
-      <c r="B19" s="38">
-        <v>45663</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="79">
-        <v>73400.001000000004</v>
-      </c>
-      <c r="E19" s="80">
-        <v>10000</v>
-      </c>
-      <c r="F19" s="160" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="161"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="80">
-        <v>10000</v>
-      </c>
-      <c r="K19" s="105">
-        <v>45663</v>
-      </c>
-      <c r="L19" s="119"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="105"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="129"/>
-      <c r="R19" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="S19" s="128"/>
-      <c r="T19" s="57">
-        <f>T14+SUM(J16:J19)+Q18</f>
-        <v>81400</v>
-      </c>
+      <c r="O19" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="96"/>
+      <c r="T19" s="23"/>
     </row>
     <row r="20" spans="2:21">
       <c r="B20" s="38">
-        <v>45664</v>
+        <v>45663</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="87">
+      <c r="D20" s="79">
+        <v>73400.001000000004</v>
+      </c>
+      <c r="E20" s="80">
+        <v>10000</v>
+      </c>
+      <c r="F20" s="130" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="80">
+        <f>E20</f>
+        <v>10000</v>
+      </c>
+      <c r="K20" s="96">
+        <v>45663</v>
+      </c>
+      <c r="L20" s="96"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="57">
+        <f>T14+SUM(J16:J20)+M19</f>
+        <v>81400</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21">
+      <c r="B21" s="38">
+        <v>45664</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="87">
         <v>73469</v>
       </c>
-      <c r="E20" s="147" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="148"/>
-      <c r="G20" s="103">
+      <c r="E21" s="175" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="176"/>
+      <c r="G21" s="95">
+        <f>G17+10000</f>
         <v>12000</v>
       </c>
-      <c r="H20" s="104">
+      <c r="H21" s="95">
         <v>0</v>
       </c>
-      <c r="I20" s="118"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="120"/>
-      <c r="Q20" s="129"/>
-      <c r="R20" s="130"/>
-      <c r="S20" s="128"/>
-      <c r="T20" s="23"/>
-    </row>
-    <row r="21" spans="2:21" ht="3.75" customHeight="1">
-      <c r="B21" s="38"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="118"/>
+      <c r="I21" s="97"/>
       <c r="J21" s="80"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="120"/>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="132"/>
-      <c r="S21" s="128"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="116"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="107"/>
       <c r="T21" s="23"/>
     </row>
-    <row r="22" spans="2:21">
-      <c r="B22" s="105">
+    <row r="22" spans="2:21" ht="3.75" customHeight="1">
+      <c r="B22" s="38"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="107"/>
+      <c r="T22" s="23"/>
+    </row>
+    <row r="23" spans="2:21">
+      <c r="B23" s="96">
         <v>45721</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="49">
+      <c r="C23" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="49">
         <v>214481</v>
       </c>
-      <c r="E22" s="147" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="148"/>
-      <c r="G22" s="106">
+      <c r="E23" s="175" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="176"/>
+      <c r="G23" s="97">
+        <f>G21+30000</f>
         <v>42000</v>
       </c>
-      <c r="H22" s="104">
-        <v>0</v>
-      </c>
-      <c r="I22" s="118"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="116"/>
-      <c r="Q22" s="133"/>
-      <c r="R22" s="134"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="135"/>
-    </row>
-    <row r="23" spans="2:21">
-      <c r="B23" s="105">
+      <c r="H23" s="190" t="s">
+        <v>156</v>
+      </c>
+      <c r="I23" s="163"/>
+      <c r="J23" s="163"/>
+      <c r="K23" s="163"/>
+      <c r="L23" s="163"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="163"/>
+      <c r="O23" s="164"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="93">
+        <v>42000</v>
+      </c>
+      <c r="R23" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="S23" s="96">
         <v>45721</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="81"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106">
-        <v>0</v>
-      </c>
-      <c r="H23" s="149" t="s">
-        <v>35</v>
-      </c>
-      <c r="I23" s="150"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="106">
-        <v>42000</v>
-      </c>
-      <c r="N23" s="106" t="s">
-        <v>36</v>
-      </c>
-      <c r="O23" s="105">
-        <v>45721</v>
-      </c>
-      <c r="P23" s="116"/>
-      <c r="Q23" s="125"/>
-      <c r="R23" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="S23" s="23"/>
       <c r="T23" s="23"/>
+      <c r="U23" s="117"/>
     </row>
     <row r="24" spans="2:21">
-      <c r="B24" s="105"/>
+      <c r="B24" s="96"/>
       <c r="C24" s="23"/>
       <c r="D24" s="49"/>
       <c r="E24" s="81"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="106"/>
-      <c r="O24" s="105"/>
-      <c r="P24" s="116"/>
-      <c r="Q24" s="125"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="93"/>
+      <c r="R24" s="97"/>
+      <c r="S24" s="96"/>
       <c r="T24" s="23"/>
     </row>
     <row r="25" spans="2:21">
-      <c r="B25" s="105">
+      <c r="B25" s="96">
         <v>45722</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="49">
         <f>40000-2550</f>
         <v>37450</v>
       </c>
-      <c r="E25" s="144" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="106">
+      <c r="E25" s="178" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="97">
         <v>5000</v>
       </c>
-      <c r="G25" s="106"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="155">
-        <v>10000</v>
-      </c>
-      <c r="K25" s="121">
+      <c r="G25" s="180" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="179"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="179">
+        <v>5000</v>
+      </c>
+      <c r="N25" s="96">
         <v>45723</v>
       </c>
-      <c r="L25" s="116"/>
-      <c r="M25" s="152" t="s">
-        <v>39</v>
-      </c>
-      <c r="N25" s="153"/>
-      <c r="O25" s="153"/>
-      <c r="P25" s="153"/>
-      <c r="Q25" s="153"/>
-      <c r="R25" s="153"/>
-      <c r="S25" s="154"/>
+      <c r="O25" s="192" t="s">
+        <v>157</v>
+      </c>
+      <c r="P25" s="180"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="180"/>
+      <c r="S25" s="163"/>
       <c r="T25" s="23"/>
     </row>
     <row r="26" spans="2:21">
-      <c r="B26" s="105">
+      <c r="B26" s="96">
         <v>45722</v>
       </c>
-      <c r="C26" s="23"/>
+      <c r="C26" s="23" t="s">
+        <v>18</v>
+      </c>
       <c r="D26" s="49">
         <f>5000*7.49</f>
         <v>37450</v>
       </c>
-      <c r="E26" s="145"/>
-      <c r="F26" s="106">
+      <c r="E26" s="181"/>
+      <c r="F26" s="97">
         <v>5000</v>
       </c>
-      <c r="G26" s="106"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="121" t="s">
-        <v>40</v>
-      </c>
-      <c r="L26" s="116"/>
-      <c r="M26" s="152" t="s">
-        <v>41</v>
-      </c>
-      <c r="N26" s="153"/>
-      <c r="O26" s="153"/>
-      <c r="P26" s="153"/>
-      <c r="Q26" s="153"/>
-      <c r="R26" s="153"/>
-      <c r="S26" s="154"/>
+      <c r="G26" s="187" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="179"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="179">
+        <v>5000</v>
+      </c>
+      <c r="N26" s="96">
+        <v>45723</v>
+      </c>
+      <c r="O26" s="192" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="180"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="180"/>
+      <c r="S26" s="163"/>
       <c r="T26" s="23"/>
     </row>
     <row r="27" spans="2:21">
-      <c r="B27" s="105">
+      <c r="B27" s="96">
         <v>45722</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="49"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="106"/>
-      <c r="N27" s="106"/>
-      <c r="O27" s="116"/>
-      <c r="P27" s="116"/>
-      <c r="Q27" s="125"/>
-      <c r="R27" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="S27" s="128"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="172"/>
+      <c r="L27" s="172"/>
+      <c r="M27" s="173"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="174"/>
+      <c r="P27" s="174"/>
+      <c r="Q27" s="100"/>
+      <c r="R27" s="100"/>
+      <c r="S27" s="107"/>
       <c r="T27" s="57">
-        <f>T19+M23+J25</f>
+        <f>T20+Q23+SUM(M25:M26)</f>
         <v>133400</v>
       </c>
     </row>
     <row r="28" spans="2:21">
-      <c r="B28" s="105"/>
+      <c r="B28" s="96"/>
       <c r="C28" s="23"/>
       <c r="D28" s="49"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="122"/>
-      <c r="K28" s="121"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="123"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="123"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="123"/>
-      <c r="S28" s="123"/>
-      <c r="T28" s="23"/>
-    </row>
-    <row r="29" spans="2:21">
-      <c r="G29" s="110"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="124"/>
-    </row>
-    <row r="30" spans="2:21" ht="17.25">
-      <c r="B30" s="137" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="137"/>
-      <c r="D30" s="137"/>
-      <c r="E30" s="137"/>
-      <c r="F30" s="137"/>
-      <c r="G30" s="137"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="124"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="172"/>
+      <c r="L28" s="172"/>
+      <c r="M28" s="173"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="174"/>
+      <c r="P28" s="174"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="100"/>
+      <c r="S28" s="107"/>
+      <c r="T28" s="57"/>
+    </row>
+    <row r="29" spans="2:21" ht="3.75" customHeight="1">
+      <c r="B29" s="96"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="172"/>
+      <c r="L29" s="172"/>
+      <c r="M29" s="173"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="174"/>
+      <c r="P29" s="174"/>
+      <c r="Q29" s="100"/>
+      <c r="R29" s="100"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="57"/>
+    </row>
+    <row r="30" spans="2:21">
+      <c r="B30" s="189" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="110">
+        <f>SUM(J5:J20)</f>
+        <v>66000</v>
+      </c>
+      <c r="K30" s="109"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="119">
+        <f>SUM(M5:M26)</f>
+        <v>25400</v>
+      </c>
+      <c r="N30" s="111"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="111">
+        <f>Q23</f>
+        <v>42000</v>
+      </c>
+      <c r="R30" s="193" t="s">
+        <v>158</v>
+      </c>
+      <c r="S30" s="191" t="s">
+        <v>159</v>
+      </c>
+      <c r="T30" s="57">
+        <f>SUM(J30:Q30)</f>
+        <v>133400</v>
+      </c>
     </row>
     <row r="31" spans="2:21">
-      <c r="B31" s="137" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="137"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="124"/>
-    </row>
-    <row r="32" spans="2:21">
-      <c r="B32" s="137" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="137"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="137"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="124"/>
-    </row>
-    <row r="33" spans="7:9">
-      <c r="G33" s="110"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="124"/>
-    </row>
-    <row r="34" spans="7:9">
-      <c r="G34" s="110"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="124"/>
-    </row>
-    <row r="35" spans="7:9">
-      <c r="G35" s="110"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="124"/>
-    </row>
-    <row r="36" spans="7:9">
-      <c r="G36" s="110"/>
-      <c r="H36" s="111"/>
-      <c r="I36" s="124"/>
-    </row>
-    <row r="37" spans="7:9">
-      <c r="G37" s="110"/>
-      <c r="H37" s="111"/>
-      <c r="I37" s="124"/>
-    </row>
-    <row r="38" spans="7:9">
-      <c r="G38" s="110"/>
-      <c r="H38" s="111"/>
-      <c r="I38" s="124"/>
-    </row>
-    <row r="39" spans="7:9">
-      <c r="G39" s="110"/>
-      <c r="H39" s="111"/>
-      <c r="I39" s="124"/>
-    </row>
-    <row r="40" spans="7:9">
-      <c r="G40" s="110"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="124"/>
-    </row>
-    <row r="41" spans="7:9">
-      <c r="G41" s="110"/>
-      <c r="H41" s="111"/>
-      <c r="I41" s="124"/>
-    </row>
-    <row r="42" spans="7:9">
-      <c r="G42" s="110"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="124"/>
-    </row>
-    <row r="43" spans="7:9">
-      <c r="G43" s="110"/>
-      <c r="H43" s="111"/>
-      <c r="I43" s="124"/>
-    </row>
-    <row r="44" spans="7:9">
-      <c r="G44" s="110"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="124"/>
-    </row>
-    <row r="45" spans="7:9">
-      <c r="G45" s="110"/>
-      <c r="H45" s="111"/>
-      <c r="I45" s="124"/>
-    </row>
-    <row r="46" spans="7:9">
-      <c r="G46" s="110"/>
-      <c r="H46" s="111"/>
-      <c r="I46" s="124"/>
-    </row>
-    <row r="47" spans="7:9">
-      <c r="G47" s="110"/>
-      <c r="H47" s="111"/>
-      <c r="I47" s="124"/>
-    </row>
-    <row r="48" spans="7:9">
-      <c r="G48" s="110"/>
-      <c r="H48" s="111"/>
-      <c r="I48" s="124"/>
-    </row>
-    <row r="49" spans="7:9">
-      <c r="G49" s="110"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="124"/>
-    </row>
-    <row r="50" spans="7:9">
-      <c r="G50" s="110"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="124"/>
-    </row>
-    <row r="51" spans="7:9">
-      <c r="G51" s="110"/>
-      <c r="H51" s="111"/>
-      <c r="I51" s="124"/>
-    </row>
-    <row r="52" spans="7:9">
-      <c r="G52" s="110"/>
-      <c r="H52" s="111"/>
-      <c r="I52" s="124"/>
-    </row>
-    <row r="53" spans="7:9">
-      <c r="G53" s="110"/>
-      <c r="H53" s="111"/>
-      <c r="I53" s="124"/>
-    </row>
-    <row r="54" spans="7:9">
-      <c r="G54" s="110"/>
-      <c r="H54" s="111"/>
-      <c r="I54" s="124"/>
-    </row>
-    <row r="55" spans="7:9">
-      <c r="G55" s="110"/>
-      <c r="H55" s="111"/>
-      <c r="I55" s="124"/>
-    </row>
-    <row r="56" spans="7:9">
-      <c r="G56" s="110"/>
-      <c r="H56" s="111"/>
-      <c r="I56" s="124"/>
-    </row>
-    <row r="57" spans="7:9">
-      <c r="G57" s="110"/>
-      <c r="H57" s="111"/>
-      <c r="I57" s="124"/>
-    </row>
-    <row r="58" spans="7:9">
-      <c r="G58" s="110"/>
-      <c r="H58" s="111"/>
-      <c r="I58" s="124"/>
-    </row>
-    <row r="59" spans="7:9">
-      <c r="G59" s="110"/>
-      <c r="H59" s="111"/>
-      <c r="I59" s="124"/>
-    </row>
-    <row r="60" spans="7:9">
-      <c r="G60" s="110"/>
-      <c r="H60" s="111"/>
-      <c r="I60" s="124"/>
-    </row>
-    <row r="61" spans="7:9">
-      <c r="G61" s="110"/>
-      <c r="H61" s="111"/>
-      <c r="I61" s="124"/>
-    </row>
-    <row r="62" spans="7:9">
-      <c r="G62" s="110"/>
-      <c r="H62" s="111"/>
-      <c r="I62" s="124"/>
-    </row>
-    <row r="63" spans="7:9">
-      <c r="G63" s="110"/>
-      <c r="H63" s="111"/>
-      <c r="I63" s="124"/>
-    </row>
-    <row r="64" spans="7:9">
-      <c r="G64" s="110"/>
-      <c r="H64" s="111"/>
-      <c r="I64" s="124"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="112"/>
+    </row>
+    <row r="32" spans="2:21" ht="17.25">
+      <c r="B32" s="132" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="112"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="132" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="112"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="132" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="132"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="132"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="112"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="G35" s="101"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="112"/>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="G36" s="101"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="112"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="G37" s="101"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="112"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="G38" s="101"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="112"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="G39" s="101"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="112"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="G40" s="101"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="112"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="G41" s="101"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="112"/>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="G42" s="101"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="112"/>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="G43" s="101"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="112"/>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="G44" s="101"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="112"/>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="G45" s="101"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="112"/>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="G46" s="101"/>
+      <c r="H46" s="102"/>
+      <c r="I46" s="112"/>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="G47" s="101"/>
+      <c r="H47" s="102"/>
+      <c r="I47" s="112"/>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="G48" s="101"/>
+      <c r="H48" s="102"/>
+      <c r="I48" s="112"/>
+    </row>
+    <row r="49" spans="7:11">
+      <c r="G49" s="101"/>
+      <c r="H49" s="102"/>
+      <c r="I49" s="112"/>
+      <c r="K49" s="183"/>
+    </row>
+    <row r="50" spans="7:11">
+      <c r="H50" s="102"/>
+      <c r="I50" s="112"/>
+    </row>
+    <row r="51" spans="7:11">
+      <c r="G51" s="101"/>
+      <c r="H51" s="102"/>
+      <c r="I51" s="112"/>
+    </row>
+    <row r="52" spans="7:11">
+      <c r="G52" s="101"/>
+      <c r="H52" s="102"/>
+      <c r="I52" s="112"/>
+    </row>
+    <row r="53" spans="7:11">
+      <c r="G53" s="101"/>
+      <c r="H53" s="102"/>
+      <c r="I53" s="112"/>
+    </row>
+    <row r="54" spans="7:11">
+      <c r="G54" s="101"/>
+      <c r="H54" s="102"/>
+      <c r="I54" s="112"/>
+    </row>
+    <row r="55" spans="7:11">
+      <c r="G55" s="101"/>
+      <c r="H55" s="102"/>
+      <c r="I55" s="112"/>
+    </row>
+    <row r="56" spans="7:11">
+      <c r="G56" s="101"/>
+      <c r="H56" s="102"/>
+      <c r="I56" s="112"/>
+    </row>
+    <row r="57" spans="7:11">
+      <c r="G57" s="101"/>
+      <c r="H57" s="102"/>
+      <c r="I57" s="112"/>
+    </row>
+    <row r="58" spans="7:11">
+      <c r="G58" s="101"/>
+      <c r="H58" s="102"/>
+      <c r="I58" s="112"/>
+    </row>
+    <row r="59" spans="7:11">
+      <c r="G59" s="101"/>
+      <c r="H59" s="102"/>
+      <c r="I59" s="112"/>
+    </row>
+    <row r="60" spans="7:11">
+      <c r="G60" s="101"/>
+      <c r="H60" s="102"/>
+      <c r="I60" s="112"/>
+    </row>
+    <row r="61" spans="7:11">
+      <c r="G61" s="101"/>
+      <c r="H61" s="102"/>
+      <c r="I61" s="112"/>
+    </row>
+    <row r="62" spans="7:11">
+      <c r="G62" s="101"/>
+      <c r="H62" s="102"/>
+      <c r="I62" s="112"/>
+    </row>
+    <row r="63" spans="7:11">
+      <c r="G63" s="101"/>
+      <c r="H63" s="102"/>
+      <c r="I63" s="112"/>
+    </row>
+    <row r="64" spans="7:11">
+      <c r="G64" s="101"/>
+      <c r="H64" s="102"/>
+      <c r="I64" s="112"/>
     </row>
     <row r="65" spans="7:9">
-      <c r="G65" s="110"/>
-      <c r="H65" s="111"/>
-      <c r="I65" s="124"/>
+      <c r="G65" s="101"/>
+      <c r="H65" s="102"/>
+      <c r="I65" s="112"/>
     </row>
     <row r="66" spans="7:9">
-      <c r="G66" s="110"/>
-      <c r="H66" s="111"/>
-      <c r="I66" s="124"/>
+      <c r="G66" s="101"/>
+      <c r="H66" s="102"/>
+      <c r="I66" s="112"/>
     </row>
     <row r="67" spans="7:9">
-      <c r="G67" s="110"/>
-      <c r="H67" s="111"/>
-      <c r="I67" s="124"/>
+      <c r="G67" s="101"/>
+      <c r="H67" s="102"/>
+      <c r="I67" s="112"/>
     </row>
     <row r="68" spans="7:9">
-      <c r="G68" s="110"/>
-      <c r="H68" s="111"/>
-      <c r="I68" s="124"/>
+      <c r="G68" s="101"/>
+      <c r="H68" s="102"/>
+      <c r="I68" s="112"/>
     </row>
     <row r="69" spans="7:9">
-      <c r="G69" s="110"/>
-      <c r="H69" s="111"/>
-      <c r="I69" s="124"/>
+      <c r="G69" s="101"/>
+      <c r="H69" s="102"/>
+      <c r="I69" s="112"/>
     </row>
     <row r="70" spans="7:9">
-      <c r="G70" s="110"/>
-      <c r="H70" s="111"/>
-      <c r="I70" s="124"/>
+      <c r="G70" s="101"/>
+      <c r="H70" s="102"/>
+      <c r="I70" s="112"/>
     </row>
     <row r="71" spans="7:9">
-      <c r="G71" s="110"/>
-      <c r="H71" s="111"/>
-      <c r="I71" s="124"/>
+      <c r="G71" s="101"/>
+      <c r="H71" s="102"/>
+      <c r="I71" s="112"/>
     </row>
     <row r="72" spans="7:9">
-      <c r="G72" s="110"/>
-      <c r="H72" s="111"/>
-      <c r="I72" s="124"/>
+      <c r="G72" s="101"/>
+      <c r="H72" s="102"/>
+      <c r="I72" s="112"/>
     </row>
     <row r="73" spans="7:9">
-      <c r="G73" s="110"/>
-      <c r="H73" s="111"/>
-      <c r="I73" s="124"/>
+      <c r="G73" s="101"/>
+      <c r="H73" s="102"/>
+      <c r="I73" s="112"/>
     </row>
     <row r="74" spans="7:9">
-      <c r="G74" s="110"/>
-      <c r="H74" s="111"/>
-      <c r="I74" s="124"/>
+      <c r="G74" s="101"/>
+      <c r="H74" s="102"/>
+      <c r="I74" s="112"/>
     </row>
     <row r="75" spans="7:9">
-      <c r="G75" s="110"/>
-      <c r="H75" s="111"/>
-      <c r="I75" s="124"/>
+      <c r="G75" s="101"/>
+      <c r="H75" s="102"/>
+      <c r="I75" s="112"/>
     </row>
     <row r="76" spans="7:9">
-      <c r="G76" s="110"/>
-      <c r="H76" s="111"/>
-      <c r="I76" s="124"/>
+      <c r="G76" s="101"/>
+      <c r="H76" s="102"/>
+      <c r="I76" s="112"/>
     </row>
     <row r="77" spans="7:9">
-      <c r="G77" s="110"/>
-      <c r="H77" s="111"/>
-      <c r="I77" s="124"/>
+      <c r="G77" s="101"/>
+      <c r="H77" s="102"/>
+      <c r="I77" s="112"/>
     </row>
     <row r="78" spans="7:9">
-      <c r="G78" s="110"/>
-      <c r="H78" s="111"/>
-      <c r="I78" s="124"/>
+      <c r="G78" s="101"/>
+      <c r="H78" s="102"/>
+      <c r="I78" s="112"/>
     </row>
     <row r="79" spans="7:9">
-      <c r="G79" s="110"/>
-      <c r="H79" s="111"/>
-      <c r="I79" s="124"/>
+      <c r="G79" s="101"/>
+      <c r="H79" s="102"/>
+      <c r="I79" s="112"/>
     </row>
     <row r="80" spans="7:9">
-      <c r="G80" s="110"/>
-      <c r="H80" s="111"/>
-      <c r="I80" s="124"/>
+      <c r="G80" s="101"/>
+      <c r="H80" s="102"/>
+      <c r="I80" s="112"/>
     </row>
     <row r="81" spans="7:9">
-      <c r="G81" s="110"/>
-      <c r="H81" s="111"/>
-      <c r="I81" s="124"/>
+      <c r="G81" s="101"/>
+      <c r="H81" s="102"/>
+      <c r="I81" s="112"/>
     </row>
     <row r="82" spans="7:9">
-      <c r="G82" s="110"/>
-      <c r="H82" s="111"/>
-      <c r="I82" s="124"/>
+      <c r="G82" s="101"/>
+      <c r="H82" s="102"/>
+      <c r="I82" s="112"/>
     </row>
     <row r="83" spans="7:9">
-      <c r="G83" s="110"/>
-      <c r="H83" s="111"/>
-      <c r="I83" s="124"/>
+      <c r="G83" s="101"/>
+      <c r="H83" s="102"/>
+      <c r="I83" s="112"/>
     </row>
     <row r="84" spans="7:9">
-      <c r="G84" s="110"/>
-      <c r="H84" s="111"/>
-      <c r="I84" s="124"/>
+      <c r="G84" s="101"/>
+      <c r="H84" s="102"/>
+      <c r="I84" s="112"/>
     </row>
     <row r="85" spans="7:9">
-      <c r="G85" s="110"/>
-      <c r="H85" s="111"/>
-      <c r="I85" s="124"/>
+      <c r="G85" s="101"/>
+      <c r="H85" s="102"/>
+      <c r="I85" s="112"/>
     </row>
     <row r="86" spans="7:9">
-      <c r="G86" s="110"/>
-      <c r="H86" s="111"/>
-      <c r="I86" s="124"/>
+      <c r="G86" s="101"/>
+      <c r="H86" s="102"/>
+      <c r="I86" s="112"/>
     </row>
     <row r="87" spans="7:9">
-      <c r="G87" s="110"/>
-      <c r="H87" s="111"/>
-      <c r="I87" s="124"/>
+      <c r="G87" s="101"/>
+      <c r="H87" s="102"/>
+      <c r="I87" s="112"/>
     </row>
     <row r="88" spans="7:9">
-      <c r="G88" s="110"/>
-      <c r="H88" s="111"/>
-      <c r="I88" s="124"/>
+      <c r="G88" s="101"/>
+      <c r="H88" s="102"/>
+      <c r="I88" s="112"/>
     </row>
     <row r="89" spans="7:9">
-      <c r="G89" s="110"/>
-      <c r="H89" s="111"/>
-      <c r="I89" s="124"/>
+      <c r="G89" s="101"/>
+      <c r="H89" s="102"/>
+      <c r="I89" s="112"/>
     </row>
     <row r="90" spans="7:9">
-      <c r="G90" s="110"/>
-      <c r="H90" s="111"/>
-      <c r="I90" s="124"/>
+      <c r="G90" s="101"/>
+      <c r="H90" s="102"/>
+      <c r="I90" s="112"/>
     </row>
     <row r="91" spans="7:9">
-      <c r="G91" s="110"/>
-      <c r="H91" s="111"/>
-      <c r="I91" s="124"/>
+      <c r="G91" s="101"/>
+      <c r="H91" s="102"/>
+      <c r="I91" s="112"/>
     </row>
     <row r="92" spans="7:9">
-      <c r="G92" s="110"/>
-      <c r="H92" s="111"/>
-      <c r="I92" s="124"/>
+      <c r="G92" s="101"/>
+      <c r="H92" s="102"/>
+      <c r="I92" s="112"/>
     </row>
     <row r="93" spans="7:9">
-      <c r="G93" s="110"/>
-      <c r="H93" s="111"/>
-      <c r="I93" s="124"/>
+      <c r="G93" s="101"/>
+      <c r="H93" s="102"/>
+      <c r="I93" s="112"/>
     </row>
     <row r="94" spans="7:9">
-      <c r="G94" s="110"/>
-      <c r="H94" s="111"/>
-      <c r="I94" s="124"/>
+      <c r="G94" s="101"/>
+      <c r="H94" s="102"/>
+      <c r="I94" s="112"/>
     </row>
     <row r="95" spans="7:9">
-      <c r="G95" s="110"/>
-      <c r="H95" s="111"/>
-      <c r="I95" s="124"/>
+      <c r="G95" s="101"/>
+      <c r="H95" s="102"/>
+      <c r="I95" s="112"/>
     </row>
     <row r="96" spans="7:9">
-      <c r="G96" s="110"/>
-      <c r="H96" s="111"/>
-      <c r="I96" s="124"/>
+      <c r="G96" s="101"/>
+      <c r="H96" s="102"/>
+      <c r="I96" s="112"/>
     </row>
     <row r="97" spans="7:9">
-      <c r="G97" s="110"/>
-      <c r="H97" s="111"/>
-      <c r="I97" s="124"/>
+      <c r="G97" s="101"/>
+      <c r="H97" s="102"/>
+      <c r="I97" s="112"/>
     </row>
     <row r="98" spans="7:9">
-      <c r="G98" s="110"/>
-      <c r="H98" s="111"/>
-      <c r="I98" s="124"/>
+      <c r="G98" s="101"/>
+      <c r="H98" s="102"/>
+      <c r="I98" s="112"/>
     </row>
     <row r="99" spans="7:9">
-      <c r="G99" s="110"/>
-      <c r="H99" s="111"/>
-      <c r="I99" s="124"/>
+      <c r="G99" s="101"/>
+      <c r="H99" s="102"/>
+      <c r="I99" s="112"/>
     </row>
     <row r="100" spans="7:9">
-      <c r="G100" s="110"/>
-      <c r="H100" s="111"/>
-      <c r="I100" s="124"/>
+      <c r="G100" s="101"/>
+      <c r="H100" s="102"/>
+      <c r="I100" s="112"/>
     </row>
     <row r="101" spans="7:9">
-      <c r="G101" s="110"/>
-      <c r="H101" s="111"/>
-      <c r="I101" s="124"/>
+      <c r="G101" s="101"/>
+      <c r="H101" s="102"/>
+      <c r="I101" s="112"/>
     </row>
     <row r="102" spans="7:9">
-      <c r="G102" s="110"/>
-      <c r="H102" s="111"/>
-      <c r="I102" s="124"/>
+      <c r="G102" s="101"/>
+      <c r="H102" s="102"/>
+      <c r="I102" s="112"/>
     </row>
     <row r="103" spans="7:9">
-      <c r="G103" s="110"/>
-      <c r="H103" s="111"/>
-      <c r="I103" s="124"/>
+      <c r="G103" s="101"/>
+      <c r="H103" s="102"/>
+      <c r="I103" s="112"/>
     </row>
     <row r="104" spans="7:9">
-      <c r="G104" s="110"/>
-      <c r="H104" s="111"/>
-      <c r="I104" s="124"/>
+      <c r="G104" s="101"/>
+      <c r="H104" s="102"/>
+      <c r="I104" s="112"/>
     </row>
     <row r="105" spans="7:9">
-      <c r="G105" s="110"/>
-      <c r="H105" s="111"/>
-      <c r="I105" s="124"/>
+      <c r="G105" s="101"/>
+      <c r="H105" s="102"/>
+      <c r="I105" s="112"/>
     </row>
     <row r="106" spans="7:9">
-      <c r="G106" s="110"/>
-      <c r="H106" s="111"/>
-      <c r="I106" s="124"/>
+      <c r="G106" s="101"/>
+      <c r="H106" s="102"/>
+      <c r="I106" s="112"/>
     </row>
     <row r="107" spans="7:9">
-      <c r="G107" s="110"/>
-      <c r="H107" s="111"/>
-      <c r="I107" s="124"/>
+      <c r="G107" s="101"/>
+      <c r="H107" s="102"/>
+      <c r="I107" s="112"/>
     </row>
     <row r="108" spans="7:9">
-      <c r="G108" s="110"/>
-      <c r="H108" s="111"/>
-      <c r="I108" s="124"/>
+      <c r="G108" s="101"/>
+      <c r="H108" s="102"/>
+      <c r="I108" s="112"/>
     </row>
     <row r="109" spans="7:9">
-      <c r="G109" s="110"/>
-      <c r="H109" s="111"/>
-      <c r="I109" s="124"/>
+      <c r="G109" s="101"/>
+      <c r="H109" s="102"/>
+      <c r="I109" s="112"/>
     </row>
     <row r="110" spans="7:9">
-      <c r="G110" s="110"/>
-      <c r="H110" s="111"/>
-      <c r="I110" s="124"/>
+      <c r="G110" s="101"/>
+      <c r="H110" s="102"/>
+      <c r="I110" s="112"/>
     </row>
     <row r="111" spans="7:9">
-      <c r="G111" s="110"/>
-      <c r="H111" s="111"/>
-      <c r="I111" s="124"/>
+      <c r="G111" s="101"/>
+      <c r="H111" s="102"/>
+      <c r="I111" s="112"/>
     </row>
     <row r="112" spans="7:9">
-      <c r="G112" s="110"/>
-      <c r="H112" s="111"/>
-      <c r="I112" s="124"/>
+      <c r="G112" s="101"/>
+      <c r="H112" s="102"/>
+      <c r="I112" s="112"/>
     </row>
     <row r="113" spans="7:9">
-      <c r="G113" s="110"/>
-      <c r="H113" s="111"/>
-      <c r="I113" s="124"/>
+      <c r="G113" s="101"/>
+      <c r="H113" s="102"/>
+      <c r="I113" s="112"/>
     </row>
     <row r="114" spans="7:9">
-      <c r="G114" s="110"/>
-      <c r="H114" s="111"/>
-      <c r="I114" s="124"/>
+      <c r="G114" s="101"/>
+      <c r="H114" s="102"/>
+      <c r="I114" s="112"/>
     </row>
     <row r="115" spans="7:9">
-      <c r="G115" s="110"/>
-      <c r="H115" s="111"/>
-      <c r="I115" s="124"/>
+      <c r="G115" s="101"/>
+      <c r="H115" s="102"/>
+      <c r="I115" s="112"/>
     </row>
     <row r="116" spans="7:9">
-      <c r="G116" s="110"/>
-      <c r="H116" s="111"/>
-      <c r="I116" s="124"/>
+      <c r="G116" s="101"/>
+      <c r="H116" s="102"/>
+      <c r="I116" s="112"/>
     </row>
     <row r="117" spans="7:9">
-      <c r="G117" s="110"/>
-      <c r="H117" s="111"/>
-      <c r="I117" s="124"/>
+      <c r="G117" s="101"/>
+      <c r="H117" s="102"/>
+      <c r="I117" s="112"/>
     </row>
     <row r="118" spans="7:9">
-      <c r="G118" s="110"/>
-      <c r="H118" s="111"/>
-      <c r="I118" s="124"/>
+      <c r="G118" s="101"/>
+      <c r="H118" s="102"/>
+      <c r="I118" s="112"/>
     </row>
     <row r="119" spans="7:9">
-      <c r="G119" s="110"/>
-      <c r="H119" s="111"/>
-      <c r="I119" s="124"/>
+      <c r="G119" s="101"/>
+      <c r="H119" s="102"/>
+      <c r="I119" s="112"/>
     </row>
     <row r="120" spans="7:9">
-      <c r="G120" s="110"/>
-      <c r="H120" s="111"/>
-      <c r="I120" s="124"/>
+      <c r="G120" s="101"/>
+      <c r="H120" s="102"/>
+      <c r="I120" s="112"/>
     </row>
     <row r="121" spans="7:9">
-      <c r="G121" s="110"/>
-      <c r="H121" s="111"/>
-      <c r="I121" s="124"/>
+      <c r="G121" s="101"/>
+      <c r="H121" s="102"/>
+      <c r="I121" s="112"/>
     </row>
     <row r="122" spans="7:9">
-      <c r="G122" s="110"/>
-      <c r="H122" s="111"/>
-      <c r="I122" s="124"/>
+      <c r="G122" s="101"/>
+      <c r="H122" s="102"/>
+      <c r="I122" s="112"/>
     </row>
     <row r="123" spans="7:9">
-      <c r="G123" s="110"/>
-      <c r="H123" s="111"/>
-      <c r="I123" s="124"/>
+      <c r="G123" s="101"/>
+      <c r="H123" s="102"/>
+      <c r="I123" s="112"/>
     </row>
     <row r="124" spans="7:9">
-      <c r="G124" s="110"/>
-      <c r="H124" s="111"/>
-      <c r="I124" s="124"/>
+      <c r="G124" s="101"/>
+      <c r="H124" s="102"/>
+      <c r="I124" s="112"/>
     </row>
     <row r="125" spans="7:9">
-      <c r="G125" s="110"/>
-      <c r="H125" s="111"/>
-      <c r="I125" s="124"/>
+      <c r="G125" s="101"/>
+      <c r="H125" s="102"/>
+      <c r="I125" s="112"/>
     </row>
     <row r="126" spans="7:9">
-      <c r="G126" s="110"/>
-      <c r="H126" s="111"/>
-      <c r="I126" s="124"/>
+      <c r="G126" s="101"/>
+      <c r="H126" s="102"/>
+      <c r="I126" s="112"/>
     </row>
     <row r="127" spans="7:9">
-      <c r="G127" s="110"/>
-      <c r="H127" s="111"/>
-      <c r="I127" s="124"/>
+      <c r="G127" s="101"/>
+      <c r="H127" s="102"/>
+      <c r="I127" s="112"/>
     </row>
     <row r="128" spans="7:9">
-      <c r="G128" s="110"/>
-      <c r="H128" s="111"/>
-      <c r="I128" s="124"/>
+      <c r="G128" s="101"/>
+      <c r="H128" s="102"/>
+      <c r="I128" s="112"/>
     </row>
     <row r="129" spans="7:9">
-      <c r="G129" s="110"/>
-      <c r="H129" s="111"/>
-      <c r="I129" s="124"/>
+      <c r="G129" s="101"/>
+      <c r="H129" s="102"/>
+      <c r="I129" s="112"/>
     </row>
     <row r="130" spans="7:9">
-      <c r="G130" s="110"/>
-      <c r="H130" s="111"/>
-      <c r="I130" s="124"/>
+      <c r="G130" s="101"/>
+      <c r="H130" s="102"/>
+      <c r="I130" s="112"/>
     </row>
     <row r="131" spans="7:9">
-      <c r="G131" s="110"/>
-      <c r="H131" s="111"/>
-      <c r="I131" s="124"/>
+      <c r="G131" s="101"/>
+      <c r="H131" s="102"/>
+      <c r="I131" s="112"/>
     </row>
     <row r="132" spans="7:9">
-      <c r="G132" s="110"/>
-      <c r="H132" s="111"/>
-      <c r="I132" s="124"/>
+      <c r="G132" s="101"/>
+      <c r="H132" s="102"/>
+      <c r="I132" s="112"/>
     </row>
     <row r="133" spans="7:9">
-      <c r="G133" s="110"/>
-      <c r="H133" s="111"/>
-      <c r="I133" s="124"/>
+      <c r="G133" s="101"/>
+      <c r="H133" s="102"/>
+      <c r="I133" s="112"/>
     </row>
     <row r="134" spans="7:9">
-      <c r="G134" s="110"/>
-      <c r="H134" s="111"/>
-      <c r="I134" s="124"/>
+      <c r="G134" s="101"/>
+      <c r="H134" s="102"/>
+      <c r="I134" s="112"/>
     </row>
     <row r="135" spans="7:9">
-      <c r="G135" s="110"/>
-      <c r="H135" s="111"/>
-      <c r="I135" s="124"/>
+      <c r="G135" s="101"/>
+      <c r="H135" s="102"/>
+      <c r="I135" s="112"/>
     </row>
     <row r="136" spans="7:9">
-      <c r="G136" s="110"/>
-      <c r="H136" s="111"/>
-      <c r="I136" s="124"/>
+      <c r="G136" s="101"/>
+      <c r="H136" s="102"/>
+      <c r="I136" s="112"/>
     </row>
     <row r="137" spans="7:9">
-      <c r="G137" s="110"/>
-      <c r="H137" s="111"/>
-      <c r="I137" s="124"/>
+      <c r="G137" s="101"/>
+      <c r="H137" s="102"/>
+      <c r="I137" s="112"/>
     </row>
     <row r="138" spans="7:9">
-      <c r="G138" s="110"/>
-      <c r="H138" s="111"/>
-      <c r="I138" s="124"/>
+      <c r="G138" s="101"/>
+      <c r="H138" s="102"/>
+      <c r="I138" s="112"/>
     </row>
     <row r="139" spans="7:9">
-      <c r="G139" s="110"/>
-      <c r="H139" s="111"/>
-      <c r="I139" s="124"/>
+      <c r="G139" s="101"/>
+      <c r="H139" s="102"/>
+      <c r="I139" s="112"/>
     </row>
     <row r="140" spans="7:9">
-      <c r="G140" s="110"/>
-      <c r="H140" s="111"/>
-      <c r="I140" s="124"/>
+      <c r="G140" s="101"/>
+      <c r="H140" s="102"/>
+      <c r="I140" s="112"/>
     </row>
     <row r="141" spans="7:9">
-      <c r="G141" s="110"/>
-      <c r="H141" s="111"/>
-      <c r="I141" s="124"/>
+      <c r="G141" s="101"/>
+      <c r="H141" s="102"/>
+      <c r="I141" s="112"/>
     </row>
     <row r="142" spans="7:9">
-      <c r="G142" s="110"/>
-      <c r="H142" s="111"/>
-      <c r="I142" s="124"/>
+      <c r="G142" s="101"/>
+      <c r="H142" s="102"/>
+      <c r="I142" s="112"/>
     </row>
     <row r="143" spans="7:9">
-      <c r="G143" s="110"/>
-      <c r="H143" s="111"/>
-      <c r="I143" s="124"/>
+      <c r="G143" s="101"/>
+      <c r="H143" s="102"/>
+      <c r="I143" s="112"/>
     </row>
     <row r="144" spans="7:9">
-      <c r="G144" s="110"/>
-      <c r="H144" s="111"/>
-      <c r="I144" s="124"/>
+      <c r="G144" s="101"/>
+      <c r="H144" s="102"/>
+      <c r="I144" s="112"/>
     </row>
     <row r="145" spans="7:9">
-      <c r="G145" s="110"/>
-      <c r="H145" s="111"/>
-      <c r="I145" s="124"/>
+      <c r="G145" s="101"/>
+      <c r="H145" s="102"/>
+      <c r="I145" s="112"/>
     </row>
     <row r="146" spans="7:9">
-      <c r="G146" s="110"/>
-      <c r="H146" s="111"/>
-      <c r="I146" s="124"/>
+      <c r="G146" s="101"/>
+      <c r="H146" s="102"/>
+      <c r="I146" s="112"/>
     </row>
     <row r="147" spans="7:9">
-      <c r="G147" s="110"/>
-      <c r="H147" s="111"/>
-      <c r="I147" s="124"/>
+      <c r="G147" s="101"/>
+      <c r="H147" s="102"/>
+      <c r="I147" s="112"/>
     </row>
     <row r="148" spans="7:9">
-      <c r="G148" s="110"/>
-      <c r="H148" s="111"/>
-      <c r="I148" s="124"/>
+      <c r="G148" s="101"/>
+      <c r="H148" s="102"/>
+      <c r="I148" s="112"/>
     </row>
     <row r="149" spans="7:9">
-      <c r="G149" s="110"/>
-      <c r="H149" s="111"/>
-      <c r="I149" s="124"/>
+      <c r="G149" s="101"/>
+      <c r="H149" s="102"/>
+      <c r="I149" s="112"/>
     </row>
     <row r="150" spans="7:9">
-      <c r="G150" s="110"/>
-      <c r="H150" s="111"/>
-      <c r="I150" s="124"/>
+      <c r="G150" s="101"/>
+      <c r="H150" s="102"/>
+      <c r="I150" s="112"/>
     </row>
     <row r="151" spans="7:9">
-      <c r="G151" s="110"/>
-      <c r="H151" s="111"/>
-      <c r="I151" s="124"/>
+      <c r="G151" s="101"/>
+      <c r="H151" s="102"/>
+      <c r="I151" s="112"/>
     </row>
     <row r="152" spans="7:9">
-      <c r="G152" s="110"/>
-      <c r="H152" s="111"/>
-      <c r="I152" s="124"/>
+      <c r="G152" s="101"/>
+      <c r="H152" s="102"/>
+      <c r="I152" s="112"/>
     </row>
     <row r="153" spans="7:9">
-      <c r="G153" s="110"/>
-      <c r="H153" s="111"/>
-      <c r="I153" s="124"/>
+      <c r="G153" s="101"/>
+      <c r="H153" s="102"/>
+      <c r="I153" s="112"/>
     </row>
     <row r="154" spans="7:9">
-      <c r="G154" s="110"/>
-      <c r="H154" s="111"/>
-      <c r="I154" s="124"/>
+      <c r="G154" s="101"/>
+      <c r="H154" s="102"/>
+      <c r="I154" s="112"/>
     </row>
     <row r="155" spans="7:9">
-      <c r="G155" s="110"/>
-      <c r="H155" s="111"/>
-      <c r="I155" s="124"/>
+      <c r="G155" s="101"/>
+      <c r="H155" s="102"/>
+      <c r="I155" s="112"/>
     </row>
     <row r="156" spans="7:9">
-      <c r="G156" s="110"/>
-      <c r="H156" s="111"/>
-      <c r="I156" s="124"/>
+      <c r="G156" s="101"/>
+      <c r="H156" s="102"/>
+      <c r="I156" s="112"/>
     </row>
     <row r="157" spans="7:9">
-      <c r="G157" s="110"/>
-      <c r="H157" s="111"/>
-      <c r="I157" s="124"/>
+      <c r="G157" s="101"/>
+      <c r="H157" s="102"/>
+      <c r="I157" s="112"/>
     </row>
     <row r="158" spans="7:9">
-      <c r="G158" s="110"/>
-      <c r="H158" s="111"/>
-      <c r="I158" s="124"/>
+      <c r="G158" s="101"/>
+      <c r="H158" s="102"/>
+      <c r="I158" s="112"/>
     </row>
     <row r="159" spans="7:9">
-      <c r="G159" s="110"/>
-      <c r="H159" s="111"/>
-      <c r="I159" s="124"/>
+      <c r="G159" s="101"/>
+      <c r="H159" s="102"/>
+      <c r="I159" s="112"/>
     </row>
     <row r="160" spans="7:9">
-      <c r="G160" s="110"/>
-      <c r="H160" s="111"/>
-      <c r="I160" s="124"/>
+      <c r="G160" s="101"/>
+      <c r="H160" s="102"/>
+      <c r="I160" s="112"/>
     </row>
     <row r="161" spans="7:9">
-      <c r="G161" s="110"/>
-      <c r="H161" s="111"/>
-      <c r="I161" s="124"/>
+      <c r="G161" s="101"/>
+      <c r="H161" s="102"/>
+      <c r="I161" s="112"/>
     </row>
     <row r="162" spans="7:9">
-      <c r="G162" s="110"/>
-      <c r="H162" s="111"/>
-      <c r="I162" s="124"/>
+      <c r="G162" s="101"/>
+      <c r="H162" s="102"/>
+      <c r="I162" s="112"/>
     </row>
     <row r="163" spans="7:9">
-      <c r="G163" s="110"/>
-      <c r="H163" s="111"/>
-      <c r="I163" s="124"/>
+      <c r="G163" s="101"/>
+      <c r="H163" s="102"/>
+      <c r="I163" s="112"/>
     </row>
     <row r="164" spans="7:9">
-      <c r="G164" s="110"/>
-      <c r="H164" s="111"/>
-      <c r="I164" s="124"/>
+      <c r="G164" s="101"/>
+      <c r="H164" s="102"/>
+      <c r="I164" s="112"/>
     </row>
     <row r="165" spans="7:9">
-      <c r="G165" s="110"/>
-      <c r="H165" s="111"/>
-      <c r="I165" s="124"/>
+      <c r="G165" s="101"/>
+      <c r="H165" s="102"/>
+      <c r="I165" s="112"/>
     </row>
     <row r="166" spans="7:9">
-      <c r="G166" s="110"/>
-      <c r="H166" s="111"/>
-      <c r="I166" s="124"/>
+      <c r="G166" s="101"/>
+      <c r="H166" s="102"/>
+      <c r="I166" s="112"/>
     </row>
     <row r="167" spans="7:9">
-      <c r="G167" s="110"/>
-      <c r="H167" s="111"/>
-      <c r="I167" s="124"/>
+      <c r="G167" s="101"/>
+      <c r="H167" s="102"/>
+      <c r="I167" s="112"/>
     </row>
     <row r="168" spans="7:9">
-      <c r="G168" s="110"/>
-      <c r="H168" s="111"/>
-      <c r="I168" s="124"/>
+      <c r="G168" s="101"/>
+      <c r="H168" s="102"/>
+      <c r="I168" s="112"/>
     </row>
     <row r="169" spans="7:9">
-      <c r="G169" s="110"/>
-      <c r="H169" s="111"/>
-      <c r="I169" s="124"/>
+      <c r="G169" s="101"/>
+      <c r="H169" s="102"/>
+      <c r="I169" s="112"/>
     </row>
     <row r="170" spans="7:9">
-      <c r="G170" s="110"/>
-      <c r="H170" s="111"/>
-      <c r="I170" s="124"/>
+      <c r="G170" s="101"/>
+      <c r="H170" s="102"/>
+      <c r="I170" s="112"/>
     </row>
     <row r="171" spans="7:9">
-      <c r="G171" s="110"/>
-      <c r="H171" s="111"/>
-      <c r="I171" s="124"/>
+      <c r="G171" s="101"/>
+      <c r="H171" s="102"/>
+      <c r="I171" s="112"/>
     </row>
     <row r="172" spans="7:9">
-      <c r="G172" s="110"/>
-      <c r="H172" s="111"/>
-      <c r="I172" s="124"/>
+      <c r="G172" s="101"/>
+      <c r="H172" s="102"/>
+      <c r="I172" s="112"/>
     </row>
     <row r="173" spans="7:9">
-      <c r="G173" s="110"/>
-      <c r="H173" s="111"/>
-      <c r="I173" s="124"/>
+      <c r="G173" s="101"/>
+      <c r="H173" s="102"/>
+      <c r="I173" s="112"/>
     </row>
     <row r="174" spans="7:9">
-      <c r="G174" s="110"/>
-      <c r="H174" s="111"/>
-      <c r="I174" s="124"/>
+      <c r="G174" s="101"/>
+      <c r="H174" s="102"/>
+      <c r="I174" s="112"/>
     </row>
     <row r="175" spans="7:9">
-      <c r="G175" s="110"/>
-      <c r="H175" s="111"/>
-      <c r="I175" s="124"/>
+      <c r="G175" s="101"/>
+      <c r="H175" s="102"/>
+      <c r="I175" s="112"/>
     </row>
     <row r="176" spans="7:9">
-      <c r="G176" s="110"/>
-      <c r="H176" s="111"/>
-      <c r="I176" s="124"/>
+      <c r="G176" s="101"/>
+      <c r="H176" s="102"/>
+      <c r="I176" s="112"/>
     </row>
     <row r="177" spans="7:9">
-      <c r="G177" s="110"/>
-      <c r="H177" s="111"/>
-      <c r="I177" s="124"/>
+      <c r="G177" s="101"/>
+      <c r="H177" s="102"/>
+      <c r="I177" s="112"/>
     </row>
     <row r="178" spans="7:9">
-      <c r="G178" s="110"/>
-      <c r="H178" s="111"/>
-      <c r="I178" s="124"/>
+      <c r="G178" s="101"/>
+      <c r="H178" s="102"/>
+      <c r="I178" s="112"/>
     </row>
     <row r="179" spans="7:9">
-      <c r="G179" s="110"/>
-      <c r="H179" s="111"/>
-      <c r="I179" s="124"/>
+      <c r="G179" s="101"/>
+      <c r="H179" s="102"/>
+      <c r="I179" s="112"/>
     </row>
     <row r="180" spans="7:9">
-      <c r="G180" s="110"/>
-      <c r="H180" s="111"/>
-      <c r="I180" s="124"/>
+      <c r="G180" s="101"/>
+      <c r="H180" s="102"/>
+      <c r="I180" s="112"/>
     </row>
     <row r="181" spans="7:9">
-      <c r="G181" s="110"/>
-      <c r="H181" s="111"/>
-      <c r="I181" s="124"/>
+      <c r="G181" s="101"/>
+      <c r="H181" s="102"/>
+      <c r="I181" s="112"/>
     </row>
     <row r="182" spans="7:9">
-      <c r="G182" s="110"/>
-      <c r="H182" s="111"/>
-      <c r="I182" s="124"/>
+      <c r="G182" s="101"/>
+      <c r="H182" s="102"/>
+      <c r="I182" s="112"/>
     </row>
     <row r="183" spans="7:9">
-      <c r="G183" s="110"/>
-      <c r="H183" s="111"/>
-      <c r="I183" s="124"/>
+      <c r="G183" s="101"/>
+      <c r="H183" s="102"/>
+      <c r="I183" s="112"/>
     </row>
     <row r="184" spans="7:9">
-      <c r="G184" s="110"/>
-      <c r="H184" s="111"/>
-      <c r="I184" s="124"/>
+      <c r="G184" s="101"/>
+      <c r="H184" s="102"/>
+      <c r="I184" s="112"/>
     </row>
     <row r="185" spans="7:9">
-      <c r="G185" s="110"/>
-      <c r="H185" s="111"/>
-      <c r="I185" s="124"/>
+      <c r="G185" s="101"/>
+      <c r="H185" s="102"/>
+      <c r="I185" s="112"/>
     </row>
     <row r="186" spans="7:9">
-      <c r="G186" s="110"/>
-      <c r="H186" s="111"/>
-      <c r="I186" s="124"/>
+      <c r="G186" s="101"/>
+      <c r="H186" s="102"/>
+      <c r="I186" s="112"/>
     </row>
     <row r="187" spans="7:9">
-      <c r="G187" s="110"/>
-      <c r="H187" s="111"/>
-      <c r="I187" s="124"/>
+      <c r="G187" s="101"/>
+      <c r="H187" s="102"/>
+      <c r="I187" s="112"/>
     </row>
     <row r="188" spans="7:9">
-      <c r="G188" s="110"/>
-      <c r="H188" s="111"/>
-      <c r="I188" s="124"/>
+      <c r="G188" s="101"/>
+      <c r="H188" s="102"/>
+      <c r="I188" s="112"/>
     </row>
     <row r="189" spans="7:9">
-      <c r="G189" s="110"/>
-      <c r="H189" s="111"/>
-      <c r="I189" s="124"/>
+      <c r="G189" s="101"/>
+      <c r="H189" s="102"/>
+      <c r="I189" s="112"/>
     </row>
     <row r="190" spans="7:9">
-      <c r="G190" s="110"/>
-      <c r="H190" s="111"/>
-      <c r="I190" s="124"/>
+      <c r="G190" s="101"/>
+      <c r="H190" s="102"/>
+      <c r="I190" s="112"/>
     </row>
     <row r="191" spans="7:9">
-      <c r="G191" s="110"/>
-      <c r="H191" s="111"/>
-      <c r="I191" s="124"/>
+      <c r="G191" s="101"/>
+      <c r="H191" s="102"/>
+      <c r="I191" s="112"/>
     </row>
     <row r="192" spans="7:9">
-      <c r="G192" s="110"/>
-      <c r="H192" s="111"/>
-      <c r="I192" s="124"/>
+      <c r="G192" s="101"/>
+      <c r="H192" s="102"/>
+      <c r="I192" s="112"/>
     </row>
     <row r="193" spans="7:9">
-      <c r="G193" s="110"/>
-      <c r="H193" s="111"/>
-      <c r="I193" s="124"/>
+      <c r="G193" s="101"/>
+      <c r="H193" s="102"/>
+      <c r="I193" s="112"/>
     </row>
     <row r="194" spans="7:9">
-      <c r="G194" s="110"/>
-      <c r="H194" s="111"/>
-      <c r="I194" s="124"/>
+      <c r="G194" s="101"/>
+      <c r="H194" s="102"/>
+      <c r="I194" s="112"/>
     </row>
     <row r="195" spans="7:9">
-      <c r="G195" s="110"/>
-      <c r="H195" s="111"/>
-      <c r="I195" s="124"/>
+      <c r="G195" s="101"/>
+      <c r="H195" s="102"/>
+      <c r="I195" s="112"/>
     </row>
     <row r="196" spans="7:9">
-      <c r="G196" s="110"/>
-      <c r="H196" s="111"/>
-      <c r="I196" s="124"/>
+      <c r="G196" s="101"/>
+      <c r="H196" s="102"/>
+      <c r="I196" s="112"/>
     </row>
     <row r="197" spans="7:9">
-      <c r="G197" s="110"/>
-      <c r="H197" s="111"/>
-      <c r="I197" s="124"/>
+      <c r="G197" s="101"/>
+      <c r="H197" s="102"/>
+      <c r="I197" s="112"/>
     </row>
     <row r="198" spans="7:9">
-      <c r="G198" s="110"/>
-      <c r="H198" s="111"/>
-      <c r="I198" s="124"/>
+      <c r="G198" s="101"/>
+      <c r="H198" s="102"/>
+      <c r="I198" s="112"/>
     </row>
     <row r="199" spans="7:9">
-      <c r="G199" s="110"/>
-      <c r="H199" s="111"/>
-      <c r="I199" s="124"/>
+      <c r="G199" s="101"/>
+      <c r="H199" s="102"/>
+      <c r="I199" s="112"/>
     </row>
     <row r="200" spans="7:9">
-      <c r="G200" s="110"/>
-      <c r="H200" s="111"/>
-      <c r="I200" s="124"/>
+      <c r="G200" s="101"/>
+      <c r="H200" s="102"/>
+      <c r="I200" s="112"/>
     </row>
     <row r="201" spans="7:9">
-      <c r="G201" s="110"/>
-      <c r="H201" s="111"/>
-      <c r="I201" s="124"/>
+      <c r="G201" s="101"/>
+      <c r="H201" s="102"/>
+      <c r="I201" s="112"/>
     </row>
     <row r="202" spans="7:9">
-      <c r="G202" s="110"/>
-      <c r="H202" s="111"/>
-      <c r="I202" s="124"/>
+      <c r="G202" s="101"/>
+      <c r="H202" s="102"/>
+      <c r="I202" s="112"/>
     </row>
     <row r="203" spans="7:9">
-      <c r="G203" s="110"/>
-      <c r="H203" s="111"/>
-      <c r="I203" s="124"/>
+      <c r="G203" s="101"/>
+      <c r="H203" s="102"/>
+      <c r="I203" s="112"/>
     </row>
     <row r="204" spans="7:9">
-      <c r="G204" s="110"/>
-      <c r="H204" s="111"/>
-      <c r="I204" s="124"/>
+      <c r="G204" s="101"/>
+      <c r="H204" s="102"/>
+      <c r="I204" s="112"/>
     </row>
     <row r="205" spans="7:9">
-      <c r="G205" s="110"/>
-      <c r="H205" s="111"/>
-      <c r="I205" s="124"/>
+      <c r="G205" s="101"/>
+      <c r="H205" s="102"/>
+      <c r="I205" s="112"/>
     </row>
     <row r="206" spans="7:9">
-      <c r="G206" s="110"/>
-      <c r="H206" s="111"/>
-      <c r="I206" s="124"/>
+      <c r="G206" s="101"/>
+      <c r="H206" s="102"/>
+      <c r="I206" s="112"/>
     </row>
     <row r="207" spans="7:9">
-      <c r="G207" s="110"/>
-      <c r="H207" s="111"/>
-      <c r="I207" s="124"/>
+      <c r="G207" s="101"/>
+      <c r="H207" s="102"/>
+      <c r="I207" s="112"/>
     </row>
     <row r="208" spans="7:9">
-      <c r="G208" s="110"/>
-      <c r="H208" s="111"/>
-      <c r="I208" s="124"/>
+      <c r="G208" s="101"/>
+      <c r="H208" s="102"/>
+      <c r="I208" s="112"/>
     </row>
     <row r="209" spans="7:9">
-      <c r="G209" s="110"/>
-      <c r="H209" s="111"/>
-      <c r="I209" s="124"/>
+      <c r="G209" s="101"/>
+      <c r="H209" s="102"/>
+      <c r="I209" s="112"/>
     </row>
     <row r="210" spans="7:9">
-      <c r="G210" s="110"/>
-      <c r="H210" s="111"/>
-      <c r="I210" s="124"/>
+      <c r="G210" s="101"/>
+      <c r="H210" s="102"/>
+      <c r="I210" s="112"/>
     </row>
     <row r="211" spans="7:9">
-      <c r="G211" s="110"/>
-      <c r="H211" s="111"/>
-      <c r="I211" s="124"/>
+      <c r="G211" s="101"/>
+      <c r="H211" s="102"/>
+      <c r="I211" s="112"/>
     </row>
     <row r="212" spans="7:9">
-      <c r="G212" s="110"/>
-      <c r="H212" s="111"/>
-      <c r="I212" s="124"/>
+      <c r="G212" s="101"/>
+      <c r="H212" s="102"/>
+      <c r="I212" s="112"/>
     </row>
     <row r="213" spans="7:9">
-      <c r="G213" s="110"/>
-      <c r="H213" s="111"/>
-      <c r="I213" s="124"/>
+      <c r="G213" s="101"/>
+      <c r="H213" s="102"/>
+      <c r="I213" s="112"/>
     </row>
     <row r="214" spans="7:9">
-      <c r="G214" s="110"/>
-      <c r="H214" s="111"/>
-      <c r="I214" s="124"/>
+      <c r="G214" s="101"/>
+      <c r="H214" s="102"/>
+      <c r="I214" s="112"/>
     </row>
     <row r="215" spans="7:9">
-      <c r="G215" s="110"/>
-      <c r="H215" s="111"/>
-      <c r="I215" s="124"/>
+      <c r="G215" s="101"/>
+      <c r="H215" s="102"/>
+      <c r="I215" s="112"/>
     </row>
     <row r="216" spans="7:9">
-      <c r="G216" s="110"/>
-      <c r="H216" s="111"/>
-      <c r="I216" s="124"/>
+      <c r="G216" s="101"/>
+      <c r="H216" s="102"/>
+      <c r="I216" s="112"/>
     </row>
     <row r="217" spans="7:9">
-      <c r="G217" s="110"/>
-      <c r="H217" s="111"/>
-      <c r="I217" s="124"/>
+      <c r="G217" s="101"/>
+      <c r="H217" s="102"/>
+      <c r="I217" s="112"/>
     </row>
     <row r="218" spans="7:9">
-      <c r="G218" s="110"/>
-      <c r="H218" s="111"/>
-      <c r="I218" s="124"/>
+      <c r="G218" s="101"/>
+      <c r="H218" s="102"/>
+      <c r="I218" s="112"/>
     </row>
     <row r="219" spans="7:9">
-      <c r="G219" s="110"/>
-      <c r="H219" s="111"/>
-      <c r="I219" s="124"/>
+      <c r="G219" s="101"/>
+      <c r="H219" s="102"/>
+      <c r="I219" s="112"/>
     </row>
     <row r="220" spans="7:9">
-      <c r="G220" s="110"/>
-      <c r="H220" s="111"/>
-      <c r="I220" s="124"/>
+      <c r="G220" s="101"/>
+      <c r="H220" s="102"/>
+      <c r="I220" s="112"/>
     </row>
     <row r="221" spans="7:9">
-      <c r="G221" s="110"/>
-      <c r="H221" s="111"/>
-      <c r="I221" s="124"/>
+      <c r="G221" s="101"/>
+      <c r="H221" s="102"/>
+      <c r="I221" s="112"/>
     </row>
     <row r="222" spans="7:9">
-      <c r="G222" s="110"/>
-      <c r="H222" s="111"/>
-      <c r="I222" s="124"/>
+      <c r="G222" s="101"/>
+      <c r="H222" s="102"/>
+      <c r="I222" s="112"/>
     </row>
     <row r="223" spans="7:9">
-      <c r="G223" s="110"/>
-      <c r="H223" s="111"/>
-      <c r="I223" s="124"/>
+      <c r="G223" s="101"/>
+      <c r="H223" s="102"/>
+      <c r="I223" s="112"/>
     </row>
     <row r="224" spans="7:9">
-      <c r="G224" s="110"/>
-      <c r="H224" s="111"/>
-      <c r="I224" s="124"/>
+      <c r="G224" s="101"/>
+      <c r="H224" s="102"/>
+      <c r="I224" s="112"/>
     </row>
     <row r="225" spans="7:9">
-      <c r="G225" s="110"/>
-      <c r="H225" s="111"/>
-      <c r="I225" s="124"/>
+      <c r="G225" s="101"/>
+      <c r="H225" s="102"/>
+      <c r="I225" s="112"/>
     </row>
     <row r="226" spans="7:9">
-      <c r="G226" s="110"/>
-      <c r="H226" s="111"/>
-      <c r="I226" s="124"/>
+      <c r="G226" s="101"/>
+      <c r="H226" s="102"/>
+      <c r="I226" s="112"/>
     </row>
     <row r="227" spans="7:9">
-      <c r="G227" s="110"/>
-      <c r="H227" s="111"/>
-      <c r="I227" s="124"/>
+      <c r="G227" s="101"/>
+      <c r="H227" s="102"/>
+      <c r="I227" s="112"/>
     </row>
     <row r="228" spans="7:9">
-      <c r="G228" s="110"/>
-      <c r="H228" s="111"/>
-      <c r="I228" s="124"/>
+      <c r="G228" s="101"/>
+      <c r="H228" s="102"/>
+      <c r="I228" s="112"/>
     </row>
     <row r="229" spans="7:9">
-      <c r="G229" s="110"/>
-      <c r="H229" s="111"/>
-      <c r="I229" s="124"/>
+      <c r="G229" s="101"/>
+      <c r="H229" s="102"/>
+      <c r="I229" s="112"/>
     </row>
     <row r="230" spans="7:9">
-      <c r="G230" s="110"/>
-      <c r="H230" s="111"/>
-      <c r="I230" s="124"/>
+      <c r="G230" s="101"/>
+      <c r="H230" s="102"/>
+      <c r="I230" s="112"/>
     </row>
     <row r="231" spans="7:9">
-      <c r="G231" s="110"/>
-      <c r="H231" s="111"/>
-      <c r="I231" s="124"/>
+      <c r="G231" s="101"/>
+      <c r="H231" s="102"/>
+      <c r="I231" s="112"/>
     </row>
     <row r="232" spans="7:9">
-      <c r="G232" s="110"/>
-      <c r="H232" s="111"/>
-      <c r="I232" s="124"/>
+      <c r="G232" s="101"/>
+      <c r="H232" s="102"/>
+      <c r="I232" s="112"/>
     </row>
     <row r="233" spans="7:9">
-      <c r="G233" s="110"/>
-      <c r="H233" s="111"/>
-      <c r="I233" s="124"/>
+      <c r="G233" s="101"/>
+      <c r="H233" s="102"/>
+      <c r="I233" s="112"/>
     </row>
     <row r="234" spans="7:9">
-      <c r="G234" s="110"/>
-      <c r="H234" s="111"/>
-      <c r="I234" s="124"/>
+      <c r="G234" s="101"/>
+      <c r="H234" s="102"/>
+      <c r="I234" s="112"/>
     </row>
     <row r="235" spans="7:9">
-      <c r="G235" s="110"/>
-      <c r="H235" s="111"/>
-      <c r="I235" s="124"/>
+      <c r="G235" s="101"/>
+      <c r="H235" s="102"/>
+      <c r="I235" s="112"/>
+    </row>
+    <row r="236" spans="7:9">
+      <c r="G236" s="101"/>
+      <c r="H236" s="102"/>
+      <c r="I236" s="112"/>
+    </row>
+    <row r="237" spans="7:9">
+      <c r="G237" s="101"/>
+      <c r="H237" s="102"/>
+      <c r="I237" s="112"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="F14:P14"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J2:S2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="H2:H4"/>
+  <mergeCells count="22">
+    <mergeCell ref="G19:I19"/>
     <mergeCell ref="T2:T3"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="G2:G4"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="M25:S25"/>
-    <mergeCell ref="M26:S26"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="B32:G32"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J2:S2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="M3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3596,58 +3646,58 @@
   <sheetData>
     <row r="1" spans="2:12">
       <c r="B1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1">
-      <c r="B3" s="166" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="169"/>
+      <c r="B3" s="126" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="138"/>
       <c r="F3" s="50"/>
-      <c r="G3" s="170" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="171"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="169"/>
+      <c r="G3" s="139" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="140"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="138"/>
       <c r="K3" s="60"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="166" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="169"/>
+      <c r="B4" s="126" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="138"/>
       <c r="D4" s="23" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="166" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="172"/>
+        <v>42</v>
+      </c>
+      <c r="I4" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="141"/>
       <c r="K4" s="47" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="23" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="37">
@@ -3657,7 +3707,7 @@
         <v>10000</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G5" s="49">
         <f>E5</f>
@@ -3668,20 +3718,20 @@
         <v>-</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J5" s="37">
         <v>45516</v>
       </c>
       <c r="K5" s="37" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="23"/>
       <c r="C6" s="23" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D6" s="37">
         <v>45541</v>
@@ -3697,20 +3747,20 @@
         <v>1820</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J6" s="37">
         <v>45541</v>
       </c>
       <c r="K6" s="37" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="23"/>
       <c r="C7" s="23" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D7" s="37">
         <v>45545</v>
@@ -3725,21 +3775,21 @@
       <c r="H7" s="41">
         <v>1820</v>
       </c>
-      <c r="I7" s="174" t="s">
-        <v>56</v>
+      <c r="I7" s="143" t="s">
+        <v>47</v>
       </c>
       <c r="J7" s="37">
         <v>45545</v>
       </c>
       <c r="K7" s="37" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="23"/>
       <c r="C8" s="23" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D8" s="37">
         <v>45549</v>
@@ -3754,19 +3804,19 @@
       <c r="H8" s="41">
         <v>1820</v>
       </c>
-      <c r="I8" s="174"/>
+      <c r="I8" s="143"/>
       <c r="J8" s="37">
         <v>45549</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="23"/>
       <c r="C9" s="23" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D9" s="37">
         <v>45567</v>
@@ -3782,19 +3832,19 @@
       <c r="H9" s="41">
         <v>1820</v>
       </c>
-      <c r="I9" s="174"/>
+      <c r="I9" s="143"/>
       <c r="J9" s="37">
         <v>45567</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D10" s="37">
         <v>45568</v>
@@ -3810,19 +3860,19 @@
       <c r="H10" s="41">
         <v>1830</v>
       </c>
-      <c r="I10" s="174"/>
+      <c r="I10" s="143"/>
       <c r="J10" s="37">
         <v>45568</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="23"/>
       <c r="C11" s="23" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D11" s="37">
         <v>45569</v>
@@ -3838,19 +3888,19 @@
       <c r="H11" s="41">
         <v>1830</v>
       </c>
-      <c r="I11" s="174"/>
+      <c r="I11" s="143"/>
       <c r="J11" s="37">
         <v>45569</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="23"/>
       <c r="C12" s="23" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D12" s="37">
         <v>45573</v>
@@ -3867,20 +3917,20 @@
         <v>1830</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="J12" s="37">
         <v>45573</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="23"/>
       <c r="C13" s="23" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D13" s="37">
         <v>45576</v>
@@ -3897,20 +3947,20 @@
         <v>1830</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="J13" s="37">
         <v>45576</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="2:12" ht="15" customHeight="1">
       <c r="B14" s="23"/>
       <c r="C14" s="23" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D14" s="37">
         <v>45598</v>
@@ -3926,20 +3976,20 @@
       <c r="H14" s="41">
         <v>1840</v>
       </c>
-      <c r="I14" s="175" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="140">
+      <c r="I14" s="144" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="134">
         <v>45598</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="23" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="37">
@@ -3956,26 +4006,26 @@
       <c r="H15" s="41">
         <v>1840</v>
       </c>
-      <c r="I15" s="176"/>
-      <c r="J15" s="178"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="147"/>
       <c r="K15" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="23" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="37" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E16" s="51">
         <v>20000</v>
       </c>
       <c r="F16" s="52" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G16" s="49">
         <f>E16</f>
@@ -3985,16 +4035,16 @@
         <f>F16</f>
         <v>-</v>
       </c>
-      <c r="I16" s="177"/>
-      <c r="J16" s="141"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="135"/>
       <c r="K16" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="23" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="37">
@@ -4012,19 +4062,19 @@
         <v>1840</v>
       </c>
       <c r="I17" s="61" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="J17" s="37">
         <v>45605</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="23" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="37">
@@ -4042,20 +4092,20 @@
         <v>1850</v>
       </c>
       <c r="I18" s="61" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J18" s="37">
         <v>45610</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="23"/>
       <c r="C19" s="23" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D19" s="37">
         <v>45611</v>
@@ -4072,22 +4122,22 @@
         <v>1850</v>
       </c>
       <c r="I19" s="61" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="J19" s="37">
         <v>45611</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="23" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D20" s="37">
         <v>45627</v>
@@ -4104,19 +4154,19 @@
         <v>1840</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="J20" s="37">
         <v>45627</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="23" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="37">
@@ -4134,20 +4184,20 @@
         <v>1850</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J21" s="37">
         <v>45648</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="23"/>
       <c r="C22" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D22" s="37">
         <v>45664</v>
@@ -4156,23 +4206,23 @@
         <v>10000</v>
       </c>
       <c r="F22" s="52" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G22" s="49">
         <f>E22</f>
         <v>10000</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J22" s="37">
         <v>45673</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L22" s="62"/>
       <c r="N22" s="63">
@@ -4180,12 +4230,12 @@
         <v>399564.66999999993</v>
       </c>
       <c r="O22" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="23" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="37">
@@ -4195,7 +4245,7 @@
         <v>20000</v>
       </c>
       <c r="F23" s="52" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G23" s="49">
         <f>E23</f>
@@ -4206,13 +4256,13 @@
         <v>-</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J23" s="37">
         <v>45667</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L23" s="2"/>
       <c r="N23" s="63">
@@ -4220,13 +4270,13 @@
         <v>76000</v>
       </c>
       <c r="O23" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="23"/>
       <c r="C24" s="23" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D24" s="37">
         <v>45669</v>
@@ -4243,13 +4293,13 @@
         <v>1850</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="J24" s="37">
         <v>45670</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L24" s="2"/>
       <c r="N24" s="63">
@@ -4257,12 +4307,12 @@
         <v>10694.66</v>
       </c>
       <c r="O24" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="23" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="37">
@@ -4280,20 +4330,20 @@
         <v>1860</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J25" s="37">
         <v>45671</v>
       </c>
       <c r="K25" s="23" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="23"/>
       <c r="C26" s="23" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D26" s="37">
         <v>45681</v>
@@ -4310,13 +4360,13 @@
         <v>1850</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="J26" s="37">
         <v>45681</v>
       </c>
       <c r="K26" s="23" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L26" s="62"/>
       <c r="M26" s="64">
@@ -4325,12 +4375,12 @@
       </c>
       <c r="N26" s="65"/>
       <c r="O26" s="65" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="23" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="37">
@@ -4348,19 +4398,19 @@
         <v>1840</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="J27" s="37">
         <v>45695</v>
       </c>
       <c r="K27" s="23" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L27" s="62"/>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="23" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="37">
@@ -4378,25 +4428,25 @@
         <v>1840</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="J28" s="37">
         <v>45697</v>
       </c>
       <c r="K28" s="23" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L28" s="62"/>
       <c r="N28" s="66">
         <v>133000</v>
       </c>
       <c r="O28" s="67" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="23" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="37">
@@ -4414,17 +4464,17 @@
         <v>1830</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="J29" s="37">
         <v>45706</v>
       </c>
       <c r="K29" s="23" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L29" s="62"/>
       <c r="N29" s="67" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="O29">
         <v>7.1</v>
@@ -4432,7 +4482,7 @@
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="23" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="37">
@@ -4450,13 +4500,13 @@
         <v>1840</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="J30" s="37">
         <v>45717</v>
       </c>
       <c r="K30" s="23" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L30" s="62"/>
       <c r="M30" s="68">
@@ -4466,7 +4516,7 @@
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="23" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="37">
@@ -4484,13 +4534,13 @@
         <v>1840</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="J31" s="37">
         <v>45718</v>
       </c>
       <c r="K31" s="23" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L31" s="62"/>
       <c r="M31" s="64">
@@ -4502,7 +4552,7 @@
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="23" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="37">
@@ -4512,7 +4562,7 @@
         <v>20000</v>
       </c>
       <c r="F32" s="52" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G32" s="49">
         <f>E32</f>
@@ -4523,19 +4573,19 @@
         <v>-</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J32" s="37">
         <v>45723</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="2:12">
       <c r="B33" s="23" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="37">
@@ -4553,19 +4603,19 @@
         <v>1830</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="J33" s="37">
         <v>45730</v>
       </c>
       <c r="K33" s="23" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L33" s="62"/>
     </row>
     <row r="34" spans="2:12">
       <c r="B34" s="23" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="37">
@@ -4575,7 +4625,7 @@
         <v>70000</v>
       </c>
       <c r="F34" s="52" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G34" s="49">
         <f>E34</f>
@@ -4586,19 +4636,19 @@
         <v>-</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J34" s="37">
         <v>45740</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L34" s="62"/>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="23" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="37">
@@ -4616,13 +4666,13 @@
         <v>1830</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J35" s="37">
         <v>45744</v>
       </c>
       <c r="K35" s="23" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L35" s="62"/>
     </row>
@@ -4671,7 +4721,7 @@
       <c r="D39" s="37"/>
       <c r="E39" s="23"/>
       <c r="F39" s="56" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G39" s="49">
         <f>SUM(G5:G38)</f>
@@ -4682,7 +4732,7 @@
         <v>45920</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
@@ -4690,13 +4740,13 @@
     </row>
     <row r="40" spans="2:12">
       <c r="F40" s="58" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G40" s="58" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H40" s="58" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="2:12">
@@ -4704,12 +4754,12 @@
         <f>B2+G39+5.434*H39+ChannelX!F2+Channel500!G4</f>
         <v>486223.94</v>
       </c>
-      <c r="G41" s="173" t="s">
-        <v>79</v>
-      </c>
-      <c r="H41" s="173"/>
-      <c r="I41" s="173"/>
-      <c r="J41" s="173"/>
+      <c r="G41" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41" s="142"/>
+      <c r="I41" s="142"/>
+      <c r="J41" s="142"/>
       <c r="K41" s="34"/>
     </row>
     <row r="42" spans="2:12">
@@ -4718,7 +4768,7 @@
         <v>486259.3299999999</v>
       </c>
       <c r="G42" s="59" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="H42" s="59"/>
       <c r="I42" s="59"/>
@@ -4732,7 +4782,7 @@
     </row>
     <row r="44" spans="2:12">
       <c r="B44" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E44" s="45">
         <v>45737</v>
@@ -4743,7 +4793,7 @@
     </row>
     <row r="45" spans="2:12">
       <c r="B45" s="58" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E45" s="45">
         <v>45698</v>
@@ -4797,69 +4847,69 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1">
-      <c r="B2" s="166" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="169"/>
+      <c r="B2" s="126" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="138"/>
       <c r="F2" s="35">
         <f>SUM(E4:E7)</f>
         <v>76000</v>
       </c>
-      <c r="G2" s="170" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="171"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="169"/>
+      <c r="G2" s="139" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="140"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="138"/>
       <c r="L2" s="46"/>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="20" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C4" s="37">
         <v>45684</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E4" s="49">
         <v>21600</v>
@@ -4872,28 +4922,28 @@
         <v>4000</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J4" s="37">
         <v>45684</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C5" s="37">
         <v>45716</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E5" s="49">
         <v>27200</v>
@@ -4906,28 +4956,28 @@
         <v>5000</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J5" s="37">
         <v>45716</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C6" s="37">
         <v>45718</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E6" s="49">
         <v>27200</v>
@@ -4940,16 +4990,16 @@
         <v>5000</v>
       </c>
       <c r="H6" s="41" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J6" s="37">
         <v>45718</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="L6" s="6"/>
     </row>
@@ -5043,73 +5093,73 @@
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1">
-      <c r="B4" s="166" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="169"/>
+      <c r="B4" s="126" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="138"/>
       <c r="G4" s="35">
         <f>SUM(F6:F9)</f>
         <v>10694.66</v>
       </c>
-      <c r="H4" s="170" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
+      <c r="H4" s="139" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
       <c r="K4" s="46"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="20" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="166" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="172"/>
+        <v>42</v>
+      </c>
+      <c r="I5" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="141"/>
       <c r="K5" s="47" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="22" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D6" s="37">
         <v>45736</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F6" s="39">
         <v>3600.01</v>
@@ -5121,8 +5171,8 @@
       <c r="H6" s="41">
         <v>660</v>
       </c>
-      <c r="I6" s="179" t="s">
-        <v>59</v>
+      <c r="I6" s="148" t="s">
+        <v>50</v>
       </c>
       <c r="J6" s="37">
         <v>45738</v>
@@ -5131,16 +5181,16 @@
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="22" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D7" s="37">
         <v>45737</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F7" s="39">
         <v>3602.87</v>
@@ -5152,7 +5202,7 @@
       <c r="H7" s="41">
         <v>660</v>
       </c>
-      <c r="I7" s="180"/>
+      <c r="I7" s="149"/>
       <c r="J7" s="37">
         <v>45738</v>
       </c>
@@ -5160,16 +5210,16 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="22" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D8" s="37">
         <v>45738</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F8" s="39">
         <v>3491.78</v>
@@ -5181,7 +5231,7 @@
       <c r="H8" s="41">
         <v>640</v>
       </c>
-      <c r="I8" s="181"/>
+      <c r="I8" s="150"/>
       <c r="J8" s="37">
         <v>45738</v>
       </c>
@@ -5252,7 +5302,7 @@
   </sheetPr>
   <dimension ref="B2:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -5277,17 +5327,17 @@
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
       <c r="E2" s="4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -5296,264 +5346,264 @@
     <row r="3" spans="2:12">
       <c r="B3" s="2"/>
       <c r="C3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="151" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="152"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="152" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="152"/>
+      <c r="J3" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="158" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="187" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="188"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="188" t="s">
-        <v>112</v>
-      </c>
-      <c r="I3" s="188"/>
-      <c r="J3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="182" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="E4" s="11">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="189" t="s">
-        <v>119</v>
-      </c>
-      <c r="I4" s="189"/>
+      <c r="H4" s="153" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="153"/>
       <c r="J4" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L4" s="21"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="183"/>
+      <c r="B5" s="159"/>
       <c r="C5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="190" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" s="191"/>
+        <v>112</v>
+      </c>
+      <c r="D5" s="154" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="155"/>
       <c r="F5" s="15" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G5" s="16"/>
-      <c r="H5" s="190" t="s">
-        <v>124</v>
-      </c>
-      <c r="I5" s="192"/>
-      <c r="J5" s="191"/>
+      <c r="H5" s="154" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="156"/>
+      <c r="J5" s="155"/>
       <c r="K5" s="14" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="L5" s="29"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="2"/>
       <c r="C6" s="17" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="168" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="168"/>
+        <v>117</v>
+      </c>
+      <c r="E6" s="129" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="129"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="170" t="s">
-        <v>126</v>
-      </c>
-      <c r="I6" s="186"/>
+      <c r="H6" s="139" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="157"/>
       <c r="J6" s="31" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="K6" s="31" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L6" s="23"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="2"/>
       <c r="C7" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="129" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="129"/>
+      <c r="F7" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="126" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="23"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="160" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="128" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" s="129"/>
+      <c r="J8" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="L8" s="23"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="161"/>
+      <c r="C9" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="139" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="157"/>
+      <c r="F9" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="128" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="129"/>
+      <c r="J9" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="168" t="s">
+      <c r="L9" s="23"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="161" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="168"/>
-      <c r="F7" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="166" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="23"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="184" t="s">
+      <c r="C10" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D10" s="128" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="139" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="168"/>
-      <c r="J8" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="L8" s="23"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="185"/>
-      <c r="C9" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="170" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="186"/>
-      <c r="F9" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="139" t="s">
-        <v>133</v>
-      </c>
-      <c r="I9" s="168"/>
-      <c r="J9" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="L9" s="23"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="185" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="139" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="168"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="19" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="6" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="K10" s="23" t="s">
-        <v>142</v>
-      </c>
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="185"/>
+      <c r="B11" s="161"/>
       <c r="C11" s="10" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" s="166" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="169"/>
+        <v>135</v>
+      </c>
+      <c r="E11" s="126" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="138"/>
       <c r="G11" s="26"/>
       <c r="H11" s="27" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="J11" s="166" t="s">
-        <v>146</v>
-      </c>
-      <c r="K11" s="167"/>
+        <v>136</v>
+      </c>
+      <c r="J11" s="126" t="s">
+        <v>137</v>
+      </c>
+      <c r="K11" s="127"/>
       <c r="L11" s="23"/>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="19" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="22" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="L12" s="23"/>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="23" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="23"/>
@@ -5563,14 +5613,14 @@
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="28" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
@@ -5585,17 +5635,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:I8"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
@@ -5603,6 +5642,17 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
